--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1720</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-81.81818181818183</v>
+      </c>
       <c r="L12" t="n">
         <v>47430</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1730</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-76.47058823529412</v>
+      </c>
       <c r="L13" t="n">
         <v>47296</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>2180</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-42.01183431952663</v>
+      </c>
       <c r="L14" t="n">
         <v>47237</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2400</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-37.57961783439491</v>
+      </c>
       <c r="L15" t="n">
         <v>47144</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2490</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-29.6969696969697</v>
+      </c>
       <c r="L16" t="n">
         <v>47094</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2540</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-34.13173652694611</v>
+      </c>
       <c r="L17" t="n">
         <v>47040</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2740</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-40.21739130434783</v>
+      </c>
       <c r="L18" t="n">
         <v>46963</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2740</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-23.07692307692308</v>
+      </c>
       <c r="L19" t="n">
         <v>46889</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2740</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>7.84313725490196</v>
+      </c>
       <c r="L20" t="n">
         <v>46856</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2820</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>46856</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2910</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-8.474576271186439</v>
+      </c>
       <c r="L22" t="n">
         <v>46847</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>3250</v>
       </c>
       <c r="K23" t="n">
-        <v>-55.9748427672956</v>
+        <v>-83.17757009345794</v>
       </c>
       <c r="L23" t="n">
         <v>46803</v>
@@ -1466,7 +1488,7 @@
         <v>3930</v>
       </c>
       <c r="K24" t="n">
-        <v>-60.67415730337079</v>
+        <v>-88.23529411764706</v>
       </c>
       <c r="L24" t="n">
         <v>46646</v>
@@ -1515,7 +1537,7 @@
         <v>4830</v>
       </c>
       <c r="K25" t="n">
-        <v>-31.79723502304148</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L25" t="n">
         <v>46601</v>
@@ -1564,7 +1586,7 @@
         <v>5720</v>
       </c>
       <c r="K26" t="n">
-        <v>-39.46830265848671</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L26" t="n">
         <v>46458</v>
@@ -1613,7 +1635,7 @@
         <v>5800</v>
       </c>
       <c r="K27" t="n">
-        <v>-37.09677419354838</v>
+        <v>-35.94771241830065</v>
       </c>
       <c r="L27" t="n">
         <v>46328</v>
@@ -1662,7 +1684,7 @@
         <v>5800</v>
       </c>
       <c r="K28" t="n">
-        <v>-37.93103448275862</v>
+        <v>-35.94771241830065</v>
       </c>
       <c r="L28" t="n">
         <v>46218</v>
@@ -1711,7 +1733,7 @@
         <v>6660</v>
       </c>
       <c r="K29" t="n">
-        <v>-17.01388888888889</v>
+        <v>-6.122448979591836</v>
       </c>
       <c r="L29" t="n">
         <v>46194</v>
@@ -1760,7 +1782,7 @@
         <v>7450</v>
       </c>
       <c r="K30" t="n">
-        <v>-22.14983713355049</v>
+        <v>-20.5183585313175</v>
       </c>
       <c r="L30" t="n">
         <v>46091</v>
@@ -1809,7 +1831,7 @@
         <v>7620</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.22033898305085</v>
+        <v>-14.64968152866242</v>
       </c>
       <c r="L31" t="n">
         <v>46013</v>
@@ -1860,7 +1882,7 @@
         <v>7920</v>
       </c>
       <c r="K32" t="n">
-        <v>-17.41935483870968</v>
+        <v>-13.9186295503212</v>
       </c>
       <c r="L32" t="n">
         <v>45914</v>
@@ -1911,7 +1933,7 @@
         <v>8150</v>
       </c>
       <c r="K33" t="n">
-        <v>-13.39563862928349</v>
+        <v>6.161137440758294</v>
       </c>
       <c r="L33" t="n">
         <v>45872</v>
@@ -1962,7 +1984,7 @@
         <v>8650</v>
       </c>
       <c r="K34" t="n">
-        <v>-27.97527047913447</v>
+        <v>-29.84293193717277</v>
       </c>
       <c r="L34" t="n">
         <v>45848</v>
@@ -2013,7 +2035,7 @@
         <v>8900</v>
       </c>
       <c r="K35" t="n">
-        <v>-20.61538461538462</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>45759</v>
@@ -2064,7 +2086,7 @@
         <v>9000</v>
       </c>
       <c r="K36" t="n">
-        <v>-20.43010752688172</v>
+        <v>0.625</v>
       </c>
       <c r="L36" t="n">
         <v>45769</v>
@@ -2115,7 +2137,7 @@
         <v>9010</v>
       </c>
       <c r="K37" t="n">
-        <v>-19.93817619783617</v>
+        <v>0.3115264797507788</v>
       </c>
       <c r="L37" t="n">
         <v>45770</v>
@@ -2166,7 +2188,7 @@
         <v>9020</v>
       </c>
       <c r="K38" t="n">
-        <v>-17.19745222929936</v>
+        <v>-35.59322033898305</v>
       </c>
       <c r="L38" t="n">
         <v>45772</v>
@@ -2217,7 +2239,7 @@
         <v>9070</v>
       </c>
       <c r="K39" t="n">
-        <v>-16.27172195892575</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>45693</v>
@@ -2268,7 +2290,7 @@
         <v>9070</v>
       </c>
       <c r="K40" t="n">
-        <v>-16.27172195892575</v>
+        <v>-11.72413793103448</v>
       </c>
       <c r="L40" t="n">
         <v>45693</v>
@@ -2319,7 +2341,7 @@
         <v>9070</v>
       </c>
       <c r="K41" t="n">
-        <v>-15.2</v>
+        <v>11.30434782608696</v>
       </c>
       <c r="L41" t="n">
         <v>45676</v>
@@ -2370,7 +2392,7 @@
         <v>9420</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.834101382488479</v>
+        <v>19.68503937007874</v>
       </c>
       <c r="L42" t="n">
         <v>45724</v>
@@ -2421,7 +2443,7 @@
         <v>9510</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.277955271565495</v>
+        <v>97.67441860465115</v>
       </c>
       <c r="L43" t="n">
         <v>45758</v>
@@ -2472,7 +2494,7 @@
         <v>9530</v>
       </c>
       <c r="K44" t="n">
-        <v>11.07142857142857</v>
+        <v>96.82539682539682</v>
       </c>
       <c r="L44" t="n">
         <v>45844</v>
@@ -2523,7 +2545,7 @@
         <v>10280</v>
       </c>
       <c r="K45" t="n">
-        <v>8.623853211009175</v>
+        <v>98.4375</v>
       </c>
       <c r="L45" t="n">
         <v>45980</v>
@@ -2574,7 +2596,7 @@
         <v>11050</v>
       </c>
       <c r="K46" t="n">
-        <v>11.06941838649156</v>
+        <v>24.50980392156863</v>
       </c>
       <c r="L46" t="n">
         <v>46029</v>
@@ -2625,7 +2647,7 @@
         <v>11060</v>
       </c>
       <c r="K47" t="n">
-        <v>9.885931558935361</v>
+        <v>24.50980392156863</v>
       </c>
       <c r="L47" t="n">
         <v>46080</v>
@@ -2676,7 +2698,7 @@
         <v>11070</v>
       </c>
       <c r="K48" t="n">
-        <v>9.67741935483871</v>
+        <v>22</v>
       </c>
       <c r="L48" t="n">
         <v>46129</v>
@@ -2727,7 +2749,7 @@
         <v>11190</v>
       </c>
       <c r="K49" t="n">
-        <v>-10.37527593818985</v>
+        <v>15.09433962264151</v>
       </c>
       <c r="L49" t="n">
         <v>46161</v>
@@ -2778,7 +2800,7 @@
         <v>11260</v>
       </c>
       <c r="K50" t="n">
-        <v>6.561679790026247</v>
+        <v>11.41552511415525</v>
       </c>
       <c r="L50" t="n">
         <v>46186</v>
@@ -2829,7 +2851,7 @@
         <v>11370</v>
       </c>
       <c r="K51" t="n">
-        <v>5.066666666666666</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L51" t="n">
         <v>46222</v>
@@ -2880,7 +2902,7 @@
         <v>11560</v>
       </c>
       <c r="K52" t="n">
-        <v>18.68131868131868</v>
+        <v>5.365853658536586</v>
       </c>
       <c r="L52" t="n">
         <v>46242</v>
@@ -2931,7 +2953,7 @@
         <v>11560</v>
       </c>
       <c r="K53" t="n">
-        <v>13.19648093841642</v>
+        <v>4.433497536945813</v>
       </c>
       <c r="L53" t="n">
         <v>46253</v>
@@ -2982,7 +3004,7 @@
         <v>12060</v>
       </c>
       <c r="K54" t="n">
-        <v>13.19648093841642</v>
+        <v>-65.1685393258427</v>
       </c>
       <c r="L54" t="n">
         <v>46212</v>
@@ -3033,7 +3055,7 @@
         <v>12060</v>
       </c>
       <c r="K55" t="n">
-        <v>6.329113924050633</v>
+        <v>-38.61386138613862</v>
       </c>
       <c r="L55" t="n">
         <v>46096</v>
@@ -3084,7 +3106,7 @@
         <v>12060</v>
       </c>
       <c r="K56" t="n">
-        <v>3.267973856209151</v>
+        <v>-40</v>
       </c>
       <c r="L56" t="n">
         <v>46057</v>
@@ -3135,7 +3157,7 @@
         <v>12500</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.455587392550143</v>
+        <v>-58.04195804195804</v>
       </c>
       <c r="L57" t="n">
         <v>45973</v>
@@ -3186,7 +3208,7 @@
         <v>12500</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.770114942528735</v>
+        <v>-54.19847328244275</v>
       </c>
       <c r="L58" t="n">
         <v>45890</v>
@@ -3237,7 +3259,7 @@
         <v>12500</v>
       </c>
       <c r="K59" t="n">
-        <v>-11.37026239067055</v>
+        <v>-51.61290322580645</v>
       </c>
       <c r="L59" t="n">
         <v>45819</v>
@@ -3288,7 +3310,7 @@
         <v>12760</v>
       </c>
       <c r="K60" t="n">
-        <v>-17.61517615176152</v>
+        <v>-72.66187050359713</v>
       </c>
       <c r="L60" t="n">
         <v>45729</v>
@@ -3339,7 +3361,7 @@
         <v>12760</v>
       </c>
       <c r="K61" t="n">
-        <v>-17.61517615176152</v>
+        <v>-100</v>
       </c>
       <c r="L61" t="n">
         <v>45628</v>
@@ -3390,7 +3412,7 @@
         <v>12770</v>
       </c>
       <c r="K62" t="n">
-        <v>-29.55223880597015</v>
+        <v>-98.34710743801654</v>
       </c>
       <c r="L62" t="n">
         <v>45509</v>
@@ -3441,7 +3463,7 @@
         <v>14020</v>
       </c>
       <c r="K63" t="n">
-        <v>3.76940133037694</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L63" t="n">
         <v>45515</v>
@@ -3492,7 +3514,7 @@
         <v>14640</v>
       </c>
       <c r="K64" t="n">
-        <v>15.06849315068493</v>
+        <v>45.73643410852713</v>
       </c>
       <c r="L64" t="n">
         <v>45633</v>
@@ -3543,7 +3565,7 @@
         <v>15740</v>
       </c>
       <c r="K65" t="n">
-        <v>20.51282051282051</v>
+        <v>61.95652173913043</v>
       </c>
       <c r="L65" t="n">
         <v>45861</v>
@@ -3594,7 +3616,7 @@
         <v>15740</v>
       </c>
       <c r="K66" t="n">
-        <v>40.29850746268657</v>
+        <v>83.95061728395061</v>
       </c>
       <c r="L66" t="n">
         <v>46089</v>
@@ -3645,7 +3667,7 @@
         <v>15970</v>
       </c>
       <c r="K67" t="n">
-        <v>33.60488798370672</v>
+        <v>71.75792507204612</v>
       </c>
       <c r="L67" t="n">
         <v>46338</v>
@@ -3696,7 +3718,7 @@
         <v>16160</v>
       </c>
       <c r="K68" t="n">
-        <v>36.34577603143418</v>
+        <v>73.224043715847</v>
       </c>
       <c r="L68" t="n">
         <v>46606</v>
@@ -3747,7 +3769,7 @@
         <v>16300</v>
       </c>
       <c r="K69" t="n">
-        <v>35.81213307240704</v>
+        <v>79.09604519774011</v>
       </c>
       <c r="L69" t="n">
         <v>46860</v>
@@ -3798,7 +3820,7 @@
         <v>17540</v>
       </c>
       <c r="K70" t="n">
-        <v>10.50955414012739</v>
+        <v>32.63598326359833</v>
       </c>
       <c r="L70" t="n">
         <v>47016</v>
@@ -3849,7 +3871,7 @@
         <v>18270</v>
       </c>
       <c r="K71" t="n">
-        <v>18.55072463768116</v>
+        <v>41.45454545454545</v>
       </c>
       <c r="L71" t="n">
         <v>47245</v>
@@ -3900,7 +3922,7 @@
         <v>18310</v>
       </c>
       <c r="K72" t="n">
-        <v>16.74074074074074</v>
+        <v>24.94172494172494</v>
       </c>
       <c r="L72" t="n">
         <v>47477</v>
@@ -3951,7 +3973,7 @@
         <v>19090</v>
       </c>
       <c r="K73" t="n">
-        <v>4.648074369189907</v>
+        <v>-7.415730337078652</v>
       </c>
       <c r="L73" t="n">
         <v>47506</v>
@@ -4002,7 +4024,7 @@
         <v>19710</v>
       </c>
       <c r="K74" t="n">
-        <v>19.21568627450981</v>
+        <v>-20.40302267002519</v>
       </c>
       <c r="L74" t="n">
         <v>47535</v>
@@ -4053,7 +4075,7 @@
         <v>20390</v>
       </c>
       <c r="K75" t="n">
-        <v>9.483793517406964</v>
+        <v>-32.04301075268818</v>
       </c>
       <c r="L75" t="n">
         <v>47386</v>
@@ -4104,7 +4126,7 @@
         <v>20790</v>
       </c>
       <c r="K76" t="n">
-        <v>13.631156930126</v>
+        <v>-17.84232365145228</v>
       </c>
       <c r="L76" t="n">
         <v>47277</v>
@@ -4155,7 +4177,7 @@
         <v>21760</v>
       </c>
       <c r="K77" t="n">
-        <v>7.127429805615551</v>
+        <v>-36.07142857142857</v>
       </c>
       <c r="L77" t="n">
         <v>47094</v>
@@ -4206,7 +4228,7 @@
         <v>22630</v>
       </c>
       <c r="K78" t="n">
-        <v>-2.073050345508391</v>
+        <v>-43.44391785150079</v>
       </c>
       <c r="L78" t="n">
         <v>46805</v>
@@ -4257,7 +4279,7 @@
         <v>22640</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.169625246548323</v>
+        <v>-29.80392156862745</v>
       </c>
       <c r="L79" t="n">
         <v>46529</v>
@@ -4308,7 +4330,7 @@
         <v>22680</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-51.92743764172335</v>
       </c>
       <c r="L80" t="n">
         <v>46373</v>
@@ -4359,7 +4381,7 @@
         <v>22800</v>
       </c>
       <c r="K81" t="n">
-        <v>1.195219123505976</v>
+        <v>-49.22048997772828</v>
       </c>
       <c r="L81" t="n">
         <v>46156</v>
@@ -4410,7 +4432,7 @@
         <v>22920</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.09852216748768472</v>
+        <v>-40.46997389033942</v>
       </c>
       <c r="L82" t="n">
         <v>45923</v>
@@ -4461,7 +4483,7 @@
         <v>23120</v>
       </c>
       <c r="K83" t="n">
-        <v>-16.04395604395604</v>
+        <v>-69.50146627565982</v>
       </c>
       <c r="L83" t="n">
         <v>45748</v>
@@ -4512,7 +4534,7 @@
         <v>23120</v>
       </c>
       <c r="K84" t="n">
-        <v>-24.52830188679245</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L84" t="n">
         <v>45511</v>
@@ -4563,7 +4585,7 @@
         <v>23120</v>
       </c>
       <c r="K85" t="n">
-        <v>-43.08943089430895</v>
+        <v>-89.69957081545064</v>
       </c>
       <c r="L85" t="n">
         <v>45342</v>
@@ -4614,7 +4636,7 @@
         <v>24060</v>
       </c>
       <c r="K86" t="n">
-        <v>-26.92307692307692</v>
+        <v>-7.82608695652174</v>
       </c>
       <c r="L86" t="n">
         <v>45227</v>
@@ -4665,7 +4687,7 @@
         <v>24190</v>
       </c>
       <c r="K87" t="n">
-        <v>-22.87104622871046</v>
+        <v>52.56410256410257</v>
       </c>
       <c r="L87" t="n">
         <v>45222</v>
@@ -4716,7 +4738,7 @@
         <v>24700</v>
       </c>
       <c r="K88" t="n">
-        <v>-30.21077283372365</v>
+        <v>15.53398058252427</v>
       </c>
       <c r="L88" t="n">
         <v>45253</v>
@@ -4767,7 +4789,7 @@
         <v>25040</v>
       </c>
       <c r="K89" t="n">
-        <v>-24.02745995423341</v>
+        <v>29.66101694915254</v>
       </c>
       <c r="L89" t="n">
         <v>45319</v>
@@ -4818,7 +4840,7 @@
         <v>25120</v>
       </c>
       <c r="K90" t="n">
-        <v>-10.29023746701847</v>
+        <v>28.44827586206897</v>
       </c>
       <c r="L90" t="n">
         <v>45397</v>

--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48110</v>
+        <v>47010</v>
       </c>
       <c r="C2" t="n">
-        <v>48120</v>
+        <v>47010</v>
       </c>
       <c r="D2" t="n">
-        <v>48120</v>
+        <v>47010</v>
       </c>
       <c r="E2" t="n">
-        <v>48110</v>
+        <v>47010</v>
       </c>
       <c r="F2" t="n">
-        <v>10.6892</v>
+        <v>14.6426</v>
       </c>
       <c r="G2" t="n">
-        <v>48003.5</v>
+        <v>474.52574926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48060</v>
+        <v>47500</v>
       </c>
       <c r="C3" t="n">
-        <v>48050</v>
+        <v>47500</v>
       </c>
       <c r="D3" t="n">
-        <v>48060</v>
+        <v>47500</v>
       </c>
       <c r="E3" t="n">
-        <v>48050</v>
+        <v>47500</v>
       </c>
       <c r="F3" t="n">
-        <v>11.7045</v>
+        <v>0.0543</v>
       </c>
       <c r="G3" t="n">
-        <v>47984.33333333334</v>
+        <v>474.58004926</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-70</v>
-      </c>
-      <c r="J3" t="n">
-        <v>70</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47750</v>
+        <v>47500</v>
       </c>
       <c r="C4" t="n">
-        <v>47750</v>
+        <v>47500</v>
       </c>
       <c r="D4" t="n">
-        <v>47750</v>
+        <v>47500</v>
       </c>
       <c r="E4" t="n">
-        <v>47750</v>
+        <v>47500</v>
       </c>
       <c r="F4" t="n">
-        <v>3.7832</v>
+        <v>4.9457</v>
       </c>
       <c r="G4" t="n">
-        <v>47960.16666666666</v>
+        <v>474.58004926</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-370</v>
-      </c>
-      <c r="J4" t="n">
-        <v>370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47850</v>
+        <v>48040</v>
       </c>
       <c r="C5" t="n">
-        <v>47870</v>
+        <v>48040</v>
       </c>
       <c r="D5" t="n">
-        <v>47870</v>
+        <v>48040</v>
       </c>
       <c r="E5" t="n">
-        <v>47850</v>
+        <v>48040</v>
       </c>
       <c r="F5" t="n">
-        <v>24.19</v>
+        <v>0.051</v>
       </c>
       <c r="G5" t="n">
-        <v>47933.5</v>
+        <v>474.63104926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-250</v>
-      </c>
-      <c r="J5" t="n">
-        <v>490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47630</v>
+        <v>47500</v>
       </c>
       <c r="C6" t="n">
-        <v>47530</v>
+        <v>47500</v>
       </c>
       <c r="D6" t="n">
-        <v>47630</v>
+        <v>47500</v>
       </c>
       <c r="E6" t="n">
-        <v>47530</v>
+        <v>47500</v>
       </c>
       <c r="F6" t="n">
-        <v>20.437</v>
+        <v>0.5278</v>
       </c>
       <c r="G6" t="n">
-        <v>47901.16666666666</v>
+        <v>474.10324926</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-590</v>
-      </c>
-      <c r="J6" t="n">
-        <v>830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47530</v>
+        <v>47510</v>
       </c>
       <c r="C7" t="n">
-        <v>47520</v>
+        <v>47510</v>
       </c>
       <c r="D7" t="n">
-        <v>47530</v>
+        <v>47510</v>
       </c>
       <c r="E7" t="n">
-        <v>47520</v>
+        <v>47510</v>
       </c>
       <c r="F7" t="n">
-        <v>8.4376</v>
+        <v>1.3681</v>
       </c>
       <c r="G7" t="n">
-        <v>47873.16666666666</v>
+        <v>475.47134926</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-600</v>
-      </c>
-      <c r="J7" t="n">
-        <v>840</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="C8" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="D8" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="E8" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="F8" t="n">
-        <v>1.7566</v>
+        <v>4.4775</v>
       </c>
       <c r="G8" t="n">
-        <v>47849</v>
+        <v>470.99384926</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-570</v>
-      </c>
-      <c r="J8" t="n">
-        <v>870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47530</v>
+        <v>47500</v>
       </c>
       <c r="C9" t="n">
-        <v>47520</v>
+        <v>47500</v>
       </c>
       <c r="D9" t="n">
-        <v>47530</v>
+        <v>47500</v>
       </c>
       <c r="E9" t="n">
-        <v>47520</v>
+        <v>47500</v>
       </c>
       <c r="F9" t="n">
-        <v>6.3639</v>
+        <v>1.688</v>
       </c>
       <c r="G9" t="n">
-        <v>47832.66666666666</v>
+        <v>470.99384926</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-600</v>
-      </c>
-      <c r="J9" t="n">
-        <v>900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47110</v>
+        <v>47050</v>
       </c>
       <c r="C10" t="n">
-        <v>47110</v>
+        <v>47030</v>
       </c>
       <c r="D10" t="n">
-        <v>47110</v>
+        <v>47050</v>
       </c>
       <c r="E10" t="n">
-        <v>47110</v>
+        <v>47030</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4134</v>
+        <v>3.4002</v>
       </c>
       <c r="G10" t="n">
-        <v>47822.33333333334</v>
+        <v>467.59364926</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-1010</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47330</v>
+        <v>47610</v>
       </c>
       <c r="C11" t="n">
-        <v>46700</v>
+        <v>47610</v>
       </c>
       <c r="D11" t="n">
-        <v>47330</v>
+        <v>47610</v>
       </c>
       <c r="E11" t="n">
-        <v>46700</v>
+        <v>47610</v>
       </c>
       <c r="F11" t="n">
-        <v>40.4934</v>
+        <v>0.0479</v>
       </c>
       <c r="G11" t="n">
-        <v>47796.33333333334</v>
+        <v>467.64154926</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-1420</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>47572</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>46710</v>
+        <v>47030</v>
       </c>
       <c r="C12" t="n">
-        <v>46700</v>
+        <v>47020</v>
       </c>
       <c r="D12" t="n">
-        <v>46710</v>
+        <v>47030</v>
       </c>
       <c r="E12" t="n">
-        <v>46700</v>
+        <v>47020</v>
       </c>
       <c r="F12" t="n">
-        <v>8.9217</v>
+        <v>20.3264</v>
       </c>
       <c r="G12" t="n">
-        <v>47751</v>
+        <v>447.3151492600001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-1420</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1720</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L12" t="n">
-        <v>47430</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>46710</v>
+        <v>47020</v>
       </c>
       <c r="C13" t="n">
-        <v>46710</v>
+        <v>47160</v>
       </c>
       <c r="D13" t="n">
-        <v>46710</v>
+        <v>47160</v>
       </c>
       <c r="E13" t="n">
-        <v>46710</v>
+        <v>47020</v>
       </c>
       <c r="F13" t="n">
-        <v>57.0529</v>
+        <v>29.714</v>
       </c>
       <c r="G13" t="n">
-        <v>47726</v>
+        <v>477.0291492600001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1410</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1730</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-76.47058823529412</v>
-      </c>
-      <c r="L13" t="n">
-        <v>47296</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46710</v>
+        <v>46580</v>
       </c>
       <c r="C14" t="n">
-        <v>47160</v>
+        <v>46410</v>
       </c>
       <c r="D14" t="n">
-        <v>47160</v>
+        <v>46580</v>
       </c>
       <c r="E14" t="n">
-        <v>46700</v>
+        <v>46410</v>
       </c>
       <c r="F14" t="n">
-        <v>57.9374</v>
+        <v>8.6913</v>
       </c>
       <c r="G14" t="n">
-        <v>47727.66666666666</v>
+        <v>468.33784926</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-960</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2180</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-42.01183431952663</v>
-      </c>
-      <c r="L14" t="n">
-        <v>47237</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47090</v>
+        <v>46830</v>
       </c>
       <c r="C15" t="n">
-        <v>46940</v>
+        <v>46830</v>
       </c>
       <c r="D15" t="n">
-        <v>47090</v>
+        <v>46830</v>
       </c>
       <c r="E15" t="n">
-        <v>46940</v>
+        <v>46830</v>
       </c>
       <c r="F15" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="G15" t="n">
-        <v>47723.5</v>
+        <v>470.40784926</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1180</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2400</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-37.57961783439491</v>
-      </c>
-      <c r="L15" t="n">
-        <v>47144</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47080</v>
+        <v>46800</v>
       </c>
       <c r="C16" t="n">
         <v>47030</v>
       </c>
       <c r="D16" t="n">
-        <v>47080</v>
+        <v>47030</v>
       </c>
       <c r="E16" t="n">
-        <v>47030</v>
+        <v>46800</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>47707.33333333334</v>
+        <v>472.40784926</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1090</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2490</v>
-      </c>
-      <c r="K16" t="n">
-        <v>-29.6969696969697</v>
-      </c>
-      <c r="L16" t="n">
-        <v>47094</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46980</v>
+        <v>47130</v>
       </c>
       <c r="C17" t="n">
-        <v>46980</v>
+        <v>47340</v>
       </c>
       <c r="D17" t="n">
-        <v>46980</v>
+        <v>47340</v>
       </c>
       <c r="E17" t="n">
-        <v>46980</v>
+        <v>47080</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>37.6979</v>
       </c>
       <c r="G17" t="n">
-        <v>47698.66666666666</v>
+        <v>510.10574926</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1140</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2540</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-34.13173652694611</v>
-      </c>
-      <c r="L17" t="n">
-        <v>47040</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46860</v>
+        <v>47460</v>
       </c>
       <c r="C18" t="n">
-        <v>46780</v>
+        <v>48160</v>
       </c>
       <c r="D18" t="n">
-        <v>46860</v>
+        <v>48160</v>
       </c>
       <c r="E18" t="n">
-        <v>46780</v>
+        <v>47460</v>
       </c>
       <c r="F18" t="n">
-        <v>4.9505</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>47694.83333333334</v>
+        <v>514.10574926</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-1340</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2740</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-40.21739130434783</v>
-      </c>
-      <c r="L18" t="n">
-        <v>46963</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>46780</v>
+        <v>48150</v>
       </c>
       <c r="C19" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="D19" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="E19" t="n">
-        <v>46780</v>
+        <v>48150</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>150.99718163</v>
       </c>
       <c r="G19" t="n">
-        <v>47682.83333333334</v>
+        <v>665.10293089</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1340</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2740</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L19" t="n">
-        <v>46889</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="C20" t="n">
-        <v>46780</v>
+        <v>48040</v>
       </c>
       <c r="D20" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="E20" t="n">
-        <v>46780</v>
+        <v>48040</v>
       </c>
       <c r="F20" t="n">
-        <v>18.9536</v>
+        <v>28.9962</v>
       </c>
       <c r="G20" t="n">
-        <v>47670.66666666666</v>
+        <v>636.10673089</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1340</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2740</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="L20" t="n">
-        <v>46856</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46780</v>
+        <v>49190</v>
       </c>
       <c r="C21" t="n">
-        <v>46700</v>
+        <v>49420</v>
       </c>
       <c r="D21" t="n">
-        <v>46780</v>
+        <v>49420</v>
       </c>
       <c r="E21" t="n">
-        <v>46700</v>
+        <v>49190</v>
       </c>
       <c r="F21" t="n">
-        <v>43.0282</v>
+        <v>44.0949</v>
       </c>
       <c r="G21" t="n">
-        <v>47657.16666666666</v>
+        <v>680.20163089</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1420</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2820</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>46856</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>47214</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>46610</v>
+        <v>49000</v>
       </c>
       <c r="C22" t="n">
-        <v>46610</v>
+        <v>49000</v>
       </c>
       <c r="D22" t="n">
-        <v>46610</v>
+        <v>49000</v>
       </c>
       <c r="E22" t="n">
-        <v>46610</v>
+        <v>49000</v>
       </c>
       <c r="F22" t="n">
-        <v>1.66</v>
+        <v>1.5318</v>
       </c>
       <c r="G22" t="n">
-        <v>47633.33333333334</v>
+        <v>678.6698308900001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1510</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2910</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-8.474576271186439</v>
-      </c>
-      <c r="L22" t="n">
-        <v>46847</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>47138.5</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>46270</v>
+        <v>49410</v>
       </c>
       <c r="C23" t="n">
-        <v>46270</v>
+        <v>49410</v>
       </c>
       <c r="D23" t="n">
-        <v>46270</v>
+        <v>49410</v>
       </c>
       <c r="E23" t="n">
-        <v>46270</v>
+        <v>48990</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>26.0798</v>
       </c>
       <c r="G23" t="n">
-        <v>47612.66666666666</v>
+        <v>704.74963089</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-1850</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3250</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-83.17757009345794</v>
-      </c>
-      <c r="L23" t="n">
-        <v>46803</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>47049.5</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45620</v>
+        <v>49410</v>
       </c>
       <c r="C24" t="n">
-        <v>45590</v>
+        <v>49420</v>
       </c>
       <c r="D24" t="n">
-        <v>45620</v>
+        <v>49420</v>
       </c>
       <c r="E24" t="n">
-        <v>45590</v>
+        <v>49410</v>
       </c>
       <c r="F24" t="n">
-        <v>9.982799999999999</v>
+        <v>8.4688</v>
       </c>
       <c r="G24" t="n">
-        <v>47580.83333333334</v>
+        <v>713.21843089</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-2530</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3930</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-88.23529411764706</v>
-      </c>
-      <c r="L24" t="n">
-        <v>46646</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>46941.5</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>46460</v>
+        <v>49420</v>
       </c>
       <c r="C25" t="n">
-        <v>46490</v>
+        <v>49460</v>
       </c>
       <c r="D25" t="n">
-        <v>46490</v>
+        <v>49460</v>
       </c>
       <c r="E25" t="n">
-        <v>46460</v>
+        <v>49420</v>
       </c>
       <c r="F25" t="n">
-        <v>7.3255</v>
+        <v>8.462400000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>47564</v>
+        <v>721.68083089</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1630</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4830</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L25" t="n">
-        <v>46601</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>46872.5</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>45610</v>
+        <v>49000</v>
       </c>
       <c r="C26" t="n">
-        <v>45600</v>
+        <v>49000</v>
       </c>
       <c r="D26" t="n">
-        <v>45610</v>
+        <v>49000</v>
       </c>
       <c r="E26" t="n">
-        <v>45600</v>
+        <v>49000</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9775</v>
+        <v>38.9756</v>
       </c>
       <c r="G26" t="n">
-        <v>47532.33333333334</v>
+        <v>682.7052308900001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-2520</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5720</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-43.39622641509434</v>
-      </c>
-      <c r="L26" t="n">
-        <v>46458</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>46776</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>45790</v>
+        <v>48730</v>
       </c>
       <c r="C27" t="n">
-        <v>45680</v>
+        <v>49460</v>
       </c>
       <c r="D27" t="n">
-        <v>45790</v>
+        <v>49460</v>
       </c>
       <c r="E27" t="n">
-        <v>45680</v>
+        <v>48720</v>
       </c>
       <c r="F27" t="n">
-        <v>16.6945</v>
+        <v>14.1675</v>
       </c>
       <c r="G27" t="n">
-        <v>47502</v>
+        <v>696.8727308900001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-2440</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5800</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-35.94771241830065</v>
-      </c>
-      <c r="L27" t="n">
-        <v>46328</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>46684</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45680</v>
+        <v>48700</v>
       </c>
       <c r="C28" t="n">
-        <v>45680</v>
+        <v>48500</v>
       </c>
       <c r="D28" t="n">
-        <v>45680</v>
+        <v>48990</v>
       </c>
       <c r="E28" t="n">
-        <v>45680</v>
+        <v>48500</v>
       </c>
       <c r="F28" t="n">
-        <v>9.1349</v>
+        <v>45.7989</v>
       </c>
       <c r="G28" t="n">
-        <v>47474</v>
+        <v>651.0738308900001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-2440</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5800</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-35.94771241830065</v>
-      </c>
-      <c r="L28" t="n">
-        <v>46218</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>46590.5</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>45470</v>
+        <v>48990</v>
       </c>
       <c r="C29" t="n">
-        <v>46540</v>
+        <v>49450</v>
       </c>
       <c r="D29" t="n">
-        <v>46540</v>
+        <v>49460</v>
       </c>
       <c r="E29" t="n">
-        <v>45260</v>
+        <v>48460</v>
       </c>
       <c r="F29" t="n">
-        <v>83.2315</v>
+        <v>39.9937</v>
       </c>
       <c r="G29" t="n">
-        <v>47466.16666666666</v>
+        <v>691.0675308900001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-1580</v>
-      </c>
-      <c r="J29" t="n">
-        <v>6660</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-6.122448979591836</v>
-      </c>
-      <c r="L29" t="n">
-        <v>46194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>46541.5</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>45750</v>
+        <v>47860</v>
       </c>
       <c r="C30" t="n">
-        <v>45750</v>
+        <v>48170</v>
       </c>
       <c r="D30" t="n">
-        <v>45750</v>
+        <v>48180</v>
       </c>
       <c r="E30" t="n">
-        <v>45750</v>
+        <v>47860</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4.5367</v>
       </c>
       <c r="G30" t="n">
-        <v>47445.33333333334</v>
+        <v>686.5308308900001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-2370</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7450</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-20.5183585313175</v>
-      </c>
-      <c r="L30" t="n">
-        <v>46091</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>46473.5</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>45750</v>
+        <v>48080</v>
       </c>
       <c r="C31" t="n">
-        <v>45920</v>
+        <v>48040</v>
       </c>
       <c r="D31" t="n">
-        <v>45920</v>
+        <v>48080</v>
       </c>
       <c r="E31" t="n">
-        <v>45750</v>
+        <v>48040</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>6.2857</v>
       </c>
       <c r="G31" t="n">
-        <v>47427.16666666666</v>
+        <v>680.24513089</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-2200</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7620</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-14.64968152866242</v>
-      </c>
-      <c r="L31" t="n">
-        <v>46013</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>46434.5</v>
-      </c>
-      <c r="N31" t="n">
-        <v>46813.66666666666</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>45620</v>
+        <v>48110</v>
       </c>
       <c r="C32" t="n">
-        <v>45620</v>
+        <v>48120</v>
       </c>
       <c r="D32" t="n">
-        <v>45620</v>
+        <v>48120</v>
       </c>
       <c r="E32" t="n">
-        <v>45620</v>
+        <v>48110</v>
       </c>
       <c r="F32" t="n">
-        <v>9</v>
+        <v>10.6892</v>
       </c>
       <c r="G32" t="n">
-        <v>47404</v>
+        <v>690.9343308900001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-2500</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7920</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-13.9186295503212</v>
-      </c>
-      <c r="L32" t="n">
-        <v>45914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>46380.5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>46730.33333333334</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>45620</v>
+        <v>48060</v>
       </c>
       <c r="C33" t="n">
-        <v>45850</v>
+        <v>48050</v>
       </c>
       <c r="D33" t="n">
-        <v>45850</v>
+        <v>48060</v>
       </c>
       <c r="E33" t="n">
-        <v>45620</v>
+        <v>48050</v>
       </c>
       <c r="F33" t="n">
-        <v>1.0453</v>
+        <v>11.7045</v>
       </c>
       <c r="G33" t="n">
-        <v>47376.5</v>
+        <v>679.22983089</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-2270</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8150</v>
-      </c>
-      <c r="K33" t="n">
-        <v>6.161137440758294</v>
-      </c>
-      <c r="L33" t="n">
-        <v>45872</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>46337.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>46657</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>45350</v>
+        <v>47750</v>
       </c>
       <c r="C34" t="n">
-        <v>45350</v>
+        <v>47750</v>
       </c>
       <c r="D34" t="n">
-        <v>45350</v>
+        <v>47750</v>
       </c>
       <c r="E34" t="n">
-        <v>45350</v>
+        <v>47750</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9751</v>
+        <v>3.7832</v>
       </c>
       <c r="G34" t="n">
-        <v>47340.66666666666</v>
+        <v>675.4466308900001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-2770</v>
-      </c>
-      <c r="J34" t="n">
-        <v>8650</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-29.84293193717277</v>
-      </c>
-      <c r="L34" t="n">
-        <v>45848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>46247</v>
-      </c>
-      <c r="N34" t="n">
-        <v>46577</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>45500</v>
+        <v>47850</v>
       </c>
       <c r="C35" t="n">
-        <v>45600</v>
+        <v>47870</v>
       </c>
       <c r="D35" t="n">
-        <v>45850</v>
+        <v>47870</v>
       </c>
       <c r="E35" t="n">
-        <v>45500</v>
+        <v>47850</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>24.19</v>
       </c>
       <c r="G35" t="n">
-        <v>47300</v>
+        <v>699.6366308900001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-2520</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8900</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>45759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>46180</v>
-      </c>
-      <c r="N35" t="n">
-        <v>46501.33333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>45600</v>
+        <v>47630</v>
       </c>
       <c r="C36" t="n">
-        <v>45700</v>
+        <v>47530</v>
       </c>
       <c r="D36" t="n">
-        <v>45700</v>
+        <v>47630</v>
       </c>
       <c r="E36" t="n">
-        <v>45600</v>
+        <v>47530</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>20.437</v>
       </c>
       <c r="G36" t="n">
-        <v>47270</v>
+        <v>679.1996308900001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-2420</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9000</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="L36" t="n">
-        <v>45769</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>46113.5</v>
-      </c>
-      <c r="N36" t="n">
-        <v>46440.33333333334</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>45690</v>
+        <v>47530</v>
       </c>
       <c r="C37" t="n">
-        <v>45690</v>
+        <v>47520</v>
       </c>
       <c r="D37" t="n">
-        <v>45690</v>
+        <v>47530</v>
       </c>
       <c r="E37" t="n">
-        <v>45690</v>
+        <v>47520</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>8.4376</v>
       </c>
       <c r="G37" t="n">
-        <v>47239.66666666666</v>
+        <v>670.7620308900001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-2430</v>
-      </c>
-      <c r="J37" t="n">
-        <v>9010</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3115264797507788</v>
-      </c>
-      <c r="L37" t="n">
-        <v>45770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>46049</v>
-      </c>
-      <c r="N37" t="n">
-        <v>46379.33333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>45690</v>
+        <v>47550</v>
       </c>
       <c r="C38" t="n">
-        <v>45700</v>
+        <v>47550</v>
       </c>
       <c r="D38" t="n">
-        <v>45700</v>
+        <v>47550</v>
       </c>
       <c r="E38" t="n">
-        <v>45690</v>
+        <v>47550</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>1.7566</v>
       </c>
       <c r="G38" t="n">
-        <v>47209.66666666666</v>
+        <v>672.5186308900002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-2420</v>
-      </c>
-      <c r="J38" t="n">
-        <v>9020</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-35.59322033898305</v>
-      </c>
-      <c r="L38" t="n">
-        <v>45772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>45995</v>
-      </c>
-      <c r="N38" t="n">
-        <v>46317.66666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>45700</v>
+        <v>47530</v>
       </c>
       <c r="C39" t="n">
-        <v>45750</v>
+        <v>47520</v>
       </c>
       <c r="D39" t="n">
-        <v>45750</v>
+        <v>47530</v>
       </c>
       <c r="E39" t="n">
-        <v>45700</v>
+        <v>47520</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6.3639</v>
       </c>
       <c r="G39" t="n">
-        <v>47180.5</v>
+        <v>666.1547308900002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-2370</v>
-      </c>
-      <c r="J39" t="n">
-        <v>9070</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>45693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>45943.5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>46258.66666666666</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>45750</v>
+        <v>47110</v>
       </c>
       <c r="C40" t="n">
-        <v>45750</v>
+        <v>47110</v>
       </c>
       <c r="D40" t="n">
-        <v>45750</v>
+        <v>47110</v>
       </c>
       <c r="E40" t="n">
-        <v>45750</v>
+        <v>47110</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>0.4134</v>
       </c>
       <c r="G40" t="n">
-        <v>47159.16666666666</v>
+        <v>665.7413308900002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-2370</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9070</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-11.72413793103448</v>
-      </c>
-      <c r="L40" t="n">
-        <v>45693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>45892</v>
-      </c>
-      <c r="N40" t="n">
-        <v>46213.33333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>45750</v>
+        <v>47330</v>
       </c>
       <c r="C41" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="D41" t="n">
-        <v>45750</v>
+        <v>47330</v>
       </c>
       <c r="E41" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>40.4934</v>
       </c>
       <c r="G41" t="n">
-        <v>47128.16666666666</v>
+        <v>625.2479308900002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-2370</v>
-      </c>
-      <c r="J41" t="n">
-        <v>9070</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.30434782608696</v>
-      </c>
-      <c r="L41" t="n">
-        <v>45676</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>45844.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>46181.66666666666</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>45750</v>
+        <v>46710</v>
       </c>
       <c r="C42" t="n">
-        <v>46100</v>
+        <v>46700</v>
       </c>
       <c r="D42" t="n">
-        <v>46150</v>
+        <v>46710</v>
       </c>
       <c r="E42" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="F42" t="n">
-        <v>1.22</v>
+        <v>8.9217</v>
       </c>
       <c r="G42" t="n">
-        <v>47112.83333333334</v>
+        <v>625.2479308900002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-2020</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9420</v>
-      </c>
-      <c r="K42" t="n">
-        <v>19.68503937007874</v>
-      </c>
-      <c r="L42" t="n">
-        <v>45724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>45819</v>
-      </c>
-      <c r="N42" t="n">
-        <v>46161.66666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46190</v>
+        <v>46710</v>
       </c>
       <c r="C43" t="n">
-        <v>46190</v>
+        <v>46710</v>
       </c>
       <c r="D43" t="n">
-        <v>46190</v>
+        <v>46710</v>
       </c>
       <c r="E43" t="n">
-        <v>46190</v>
+        <v>46710</v>
       </c>
       <c r="F43" t="n">
-        <v>17.2675</v>
+        <v>57.0529</v>
       </c>
       <c r="G43" t="n">
-        <v>47096.66666666666</v>
+        <v>682.3008308900003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1930</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9510</v>
-      </c>
-      <c r="K43" t="n">
-        <v>97.67441860465115</v>
-      </c>
-      <c r="L43" t="n">
-        <v>45758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>45815</v>
-      </c>
-      <c r="N43" t="n">
-        <v>46144.33333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>46210</v>
+        <v>46710</v>
       </c>
       <c r="C44" t="n">
-        <v>46210</v>
+        <v>47160</v>
       </c>
       <c r="D44" t="n">
-        <v>46210</v>
+        <v>47160</v>
       </c>
       <c r="E44" t="n">
-        <v>46210</v>
+        <v>46700</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4129</v>
+        <v>57.9374</v>
       </c>
       <c r="G44" t="n">
-        <v>47093.33333333334</v>
+        <v>740.2382308900003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-1910</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9530</v>
-      </c>
-      <c r="K44" t="n">
-        <v>96.82539682539682</v>
-      </c>
-      <c r="L44" t="n">
-        <v>45844</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>45846</v>
-      </c>
-      <c r="N44" t="n">
-        <v>46112.66666666666</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>46830</v>
+        <v>47090</v>
       </c>
       <c r="C45" t="n">
-        <v>46960</v>
+        <v>46940</v>
       </c>
       <c r="D45" t="n">
-        <v>46960</v>
+        <v>47090</v>
       </c>
       <c r="E45" t="n">
-        <v>46830</v>
+        <v>46940</v>
       </c>
       <c r="F45" t="n">
-        <v>17.3169</v>
+        <v>2.38</v>
       </c>
       <c r="G45" t="n">
-        <v>47095.5</v>
+        <v>737.8582308900003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-1160</v>
-      </c>
-      <c r="J45" t="n">
-        <v>10280</v>
-      </c>
-      <c r="K45" t="n">
-        <v>98.4375</v>
-      </c>
-      <c r="L45" t="n">
-        <v>45980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>45869.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>46113.33333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>46250</v>
+        <v>47080</v>
       </c>
       <c r="C46" t="n">
-        <v>46190</v>
+        <v>47030</v>
       </c>
       <c r="D46" t="n">
-        <v>46250</v>
+        <v>47080</v>
       </c>
       <c r="E46" t="n">
-        <v>46190</v>
+        <v>47030</v>
       </c>
       <c r="F46" t="n">
-        <v>6.4463</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>47081.5</v>
+        <v>740.8582308900003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-1930</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11050</v>
-      </c>
-      <c r="K46" t="n">
-        <v>24.50980392156863</v>
-      </c>
-      <c r="L46" t="n">
-        <v>46029</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>45899</v>
-      </c>
-      <c r="N46" t="n">
-        <v>46085.33333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2008,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>46200</v>
+        <v>46980</v>
       </c>
       <c r="C47" t="n">
-        <v>46200</v>
+        <v>46980</v>
       </c>
       <c r="D47" t="n">
-        <v>46200</v>
+        <v>46980</v>
       </c>
       <c r="E47" t="n">
-        <v>46200</v>
+        <v>46980</v>
       </c>
       <c r="F47" t="n">
-        <v>1.2969</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>47062.5</v>
+        <v>739.8582308900003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-1920</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>11060</v>
+        <v>47030</v>
       </c>
       <c r="K47" t="n">
-        <v>24.50980392156863</v>
-      </c>
-      <c r="L47" t="n">
-        <v>46080</v>
-      </c>
+        <v>47030</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>45925</v>
-      </c>
-      <c r="N47" t="n">
-        <v>46059.33333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2047,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46190</v>
+        <v>46860</v>
       </c>
       <c r="C48" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="D48" t="n">
-        <v>46190</v>
+        <v>46860</v>
       </c>
       <c r="E48" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="F48" t="n">
-        <v>5.1309</v>
+        <v>4.9505</v>
       </c>
       <c r="G48" t="n">
-        <v>47029.66666666666</v>
+        <v>734.9077308900003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-1930</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>11070</v>
+        <v>46980</v>
       </c>
       <c r="K48" t="n">
-        <v>22</v>
-      </c>
-      <c r="L48" t="n">
-        <v>46129</v>
+        <v>47030</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>45950.5</v>
-      </c>
-      <c r="N48" t="n">
-        <v>46039.66666666666</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2090,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="C49" t="n">
-        <v>46070</v>
+        <v>46780</v>
       </c>
       <c r="D49" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="E49" t="n">
-        <v>46070</v>
+        <v>46780</v>
       </c>
       <c r="F49" t="n">
-        <v>6.1915</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>46977.5</v>
+        <v>734.9077308900003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-2050</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>11190</v>
+        <v>46780</v>
       </c>
       <c r="K49" t="n">
-        <v>15.09433962264151</v>
-      </c>
-      <c r="L49" t="n">
-        <v>46161</v>
+        <v>47030</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>45927</v>
-      </c>
-      <c r="N49" t="n">
-        <v>46016</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2133,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>46000</v>
+        <v>46780</v>
       </c>
       <c r="C50" t="n">
-        <v>46000</v>
+        <v>46780</v>
       </c>
       <c r="D50" t="n">
-        <v>46000</v>
+        <v>46780</v>
       </c>
       <c r="E50" t="n">
-        <v>46000</v>
+        <v>46780</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2</v>
+        <v>18.9536</v>
       </c>
       <c r="G50" t="n">
-        <v>46943.5</v>
+        <v>734.9077308900003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>-2120</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>11260</v>
+        <v>46780</v>
       </c>
       <c r="K50" t="n">
-        <v>11.41552511415525</v>
-      </c>
-      <c r="L50" t="n">
-        <v>46186</v>
+        <v>47030</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>45939.5</v>
-      </c>
-      <c r="N50" t="n">
-        <v>45990</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2176,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>46110</v>
+        <v>46780</v>
       </c>
       <c r="C51" t="n">
-        <v>46110</v>
+        <v>46700</v>
       </c>
       <c r="D51" t="n">
-        <v>46110</v>
+        <v>46780</v>
       </c>
       <c r="E51" t="n">
-        <v>46110</v>
+        <v>46700</v>
       </c>
       <c r="F51" t="n">
-        <v>0.013</v>
+        <v>43.0282</v>
       </c>
       <c r="G51" t="n">
-        <v>46888.33333333334</v>
+        <v>691.8795308900003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-2010</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>11370</v>
+        <v>46780</v>
       </c>
       <c r="K51" t="n">
-        <v>0.5128205128205128</v>
-      </c>
-      <c r="L51" t="n">
-        <v>46222</v>
+        <v>47030</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>45949</v>
-      </c>
-      <c r="N51" t="n">
-        <v>45970.33333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2219,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>46520</v>
+        <v>46610</v>
       </c>
       <c r="C52" t="n">
-        <v>46300</v>
+        <v>46610</v>
       </c>
       <c r="D52" t="n">
-        <v>46520</v>
+        <v>46610</v>
       </c>
       <c r="E52" t="n">
-        <v>46300</v>
+        <v>46610</v>
       </c>
       <c r="F52" t="n">
-        <v>16.9173</v>
+        <v>1.66</v>
       </c>
       <c r="G52" t="n">
-        <v>46843.33333333334</v>
+        <v>690.2195308900003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-1820</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>5.365853658536586</v>
-      </c>
-      <c r="L52" t="n">
-        <v>46242</v>
+        <v>47030</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>45983</v>
-      </c>
-      <c r="N52" t="n">
-        <v>45960</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2260,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>46300</v>
+        <v>46270</v>
       </c>
       <c r="C53" t="n">
-        <v>46300</v>
+        <v>46270</v>
       </c>
       <c r="D53" t="n">
-        <v>46300</v>
+        <v>46270</v>
       </c>
       <c r="E53" t="n">
-        <v>46300</v>
+        <v>46270</v>
       </c>
       <c r="F53" t="n">
-        <v>12.6635</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>46791.5</v>
+        <v>689.2195308900003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-1820</v>
-      </c>
-      <c r="J53" t="n">
-        <v>11560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>4.433497536945813</v>
-      </c>
-      <c r="L53" t="n">
-        <v>46253</v>
+        <v>47030</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>46005.5</v>
-      </c>
-      <c r="N53" t="n">
-        <v>45961</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2301,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>46190</v>
+        <v>45620</v>
       </c>
       <c r="C54" t="n">
-        <v>45800</v>
+        <v>45590</v>
       </c>
       <c r="D54" t="n">
-        <v>46190</v>
+        <v>45620</v>
       </c>
       <c r="E54" t="n">
-        <v>45800</v>
+        <v>45590</v>
       </c>
       <c r="F54" t="n">
-        <v>12.6636</v>
+        <v>9.982799999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>46731.16666666666</v>
+        <v>679.2367308900003</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-2320</v>
-      </c>
-      <c r="J54" t="n">
-        <v>12060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>-65.1685393258427</v>
-      </c>
-      <c r="L54" t="n">
-        <v>46212</v>
+        <v>47030</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>46028</v>
-      </c>
-      <c r="N54" t="n">
-        <v>45968</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2342,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>45800</v>
+        <v>46460</v>
       </c>
       <c r="C55" t="n">
-        <v>45800</v>
+        <v>46490</v>
       </c>
       <c r="D55" t="n">
-        <v>45800</v>
+        <v>46490</v>
       </c>
       <c r="E55" t="n">
-        <v>45800</v>
+        <v>46460</v>
       </c>
       <c r="F55" t="n">
-        <v>10.1396</v>
+        <v>7.3255</v>
       </c>
       <c r="G55" t="n">
-        <v>46670.16666666666</v>
+        <v>686.5622308900004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-2320</v>
-      </c>
-      <c r="J55" t="n">
-        <v>12060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>-38.61386138613862</v>
-      </c>
-      <c r="L55" t="n">
-        <v>46096</v>
+        <v>47030</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>46038</v>
-      </c>
-      <c r="N55" t="n">
-        <v>45945</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2383,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>45800</v>
+        <v>45610</v>
       </c>
       <c r="C56" t="n">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="D56" t="n">
-        <v>45800</v>
+        <v>45610</v>
       </c>
       <c r="E56" t="n">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>1.9775</v>
       </c>
       <c r="G56" t="n">
-        <v>46616.83333333334</v>
+        <v>684.5847308900004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-2320</v>
-      </c>
-      <c r="J56" t="n">
-        <v>12060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L56" t="n">
-        <v>46057</v>
+        <v>47030</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>46043</v>
-      </c>
-      <c r="N56" t="n">
-        <v>45951.66666666666</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2424,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>45360</v>
+        <v>45790</v>
       </c>
       <c r="C57" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="D57" t="n">
-        <v>45360</v>
+        <v>45790</v>
       </c>
       <c r="E57" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="F57" t="n">
-        <v>4.01</v>
+        <v>16.6945</v>
       </c>
       <c r="G57" t="n">
-        <v>46548.5</v>
+        <v>701.2792308900003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-2760</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>-58.04195804195804</v>
-      </c>
-      <c r="L57" t="n">
-        <v>45973</v>
+        <v>47030</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>46026.5</v>
-      </c>
-      <c r="N57" t="n">
-        <v>45941</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2465,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="C58" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="D58" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="E58" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>9.1349</v>
       </c>
       <c r="G58" t="n">
-        <v>46496.16666666666</v>
+        <v>701.2792308900003</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-2760</v>
-      </c>
-      <c r="J58" t="n">
-        <v>12500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-54.19847328244275</v>
-      </c>
-      <c r="L58" t="n">
-        <v>45890</v>
+        <v>47030</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>46009.5</v>
-      </c>
-      <c r="N58" t="n">
-        <v>45930.33333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2506,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45360</v>
+        <v>45470</v>
       </c>
       <c r="C59" t="n">
-        <v>45360</v>
+        <v>46540</v>
       </c>
       <c r="D59" t="n">
-        <v>45360</v>
+        <v>46540</v>
       </c>
       <c r="E59" t="n">
-        <v>45360</v>
+        <v>45260</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>83.2315</v>
       </c>
       <c r="G59" t="n">
-        <v>46428</v>
+        <v>784.5107308900003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-2760</v>
-      </c>
-      <c r="J59" t="n">
-        <v>12500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>-51.61290322580645</v>
-      </c>
-      <c r="L59" t="n">
-        <v>45819</v>
+        <v>47030</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>45990</v>
-      </c>
-      <c r="N59" t="n">
-        <v>45891</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2547,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>45350</v>
+        <v>45750</v>
       </c>
       <c r="C60" t="n">
-        <v>45100</v>
+        <v>45750</v>
       </c>
       <c r="D60" t="n">
-        <v>45350</v>
+        <v>45750</v>
       </c>
       <c r="E60" t="n">
-        <v>45100</v>
+        <v>45750</v>
       </c>
       <c r="F60" t="n">
-        <v>9.0928</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
-        <v>46376.83333333334</v>
+        <v>781.5107308900003</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-3020</v>
-      </c>
-      <c r="J60" t="n">
-        <v>12760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>-72.66187050359713</v>
-      </c>
-      <c r="L60" t="n">
-        <v>45729</v>
+        <v>47030</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>45957.5</v>
-      </c>
-      <c r="N60" t="n">
-        <v>45869.33333333334</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2588,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>45350</v>
+        <v>45750</v>
       </c>
       <c r="C61" t="n">
-        <v>45100</v>
+        <v>45920</v>
       </c>
       <c r="D61" t="n">
-        <v>45350</v>
+        <v>45920</v>
       </c>
       <c r="E61" t="n">
-        <v>45100</v>
+        <v>45750</v>
       </c>
       <c r="F61" t="n">
-        <v>5.4286</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>46327.83333333334</v>
+        <v>784.5107308900003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-3020</v>
-      </c>
-      <c r="J61" t="n">
-        <v>12760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L61" t="n">
-        <v>45628</v>
+        <v>47030</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>45925</v>
-      </c>
-      <c r="N61" t="n">
-        <v>45842</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2629,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45110</v>
+        <v>45620</v>
       </c>
       <c r="C62" t="n">
-        <v>45110</v>
+        <v>45620</v>
       </c>
       <c r="D62" t="n">
-        <v>45110</v>
+        <v>45620</v>
       </c>
       <c r="E62" t="n">
-        <v>45110</v>
+        <v>45620</v>
       </c>
       <c r="F62" t="n">
-        <v>24.2181</v>
+        <v>9</v>
       </c>
       <c r="G62" t="n">
-        <v>46277.66666666666</v>
+        <v>775.5107308900003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-3010</v>
-      </c>
-      <c r="J62" t="n">
-        <v>12770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>-98.34710743801654</v>
-      </c>
-      <c r="L62" t="n">
-        <v>45509</v>
+        <v>47030</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>45875.5</v>
-      </c>
-      <c r="N62" t="n">
-        <v>45825</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2670,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>45360</v>
+        <v>45620</v>
       </c>
       <c r="C63" t="n">
-        <v>46360</v>
+        <v>45850</v>
       </c>
       <c r="D63" t="n">
-        <v>46380</v>
+        <v>45850</v>
       </c>
       <c r="E63" t="n">
-        <v>45360</v>
+        <v>45620</v>
       </c>
       <c r="F63" t="n">
-        <v>71.9799</v>
+        <v>1.0453</v>
       </c>
       <c r="G63" t="n">
-        <v>46249.5</v>
+        <v>776.5560308900003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-1760</v>
-      </c>
-      <c r="J63" t="n">
-        <v>14020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L63" t="n">
-        <v>45515</v>
+        <v>47030</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>45884</v>
-      </c>
-      <c r="N63" t="n">
-        <v>45842</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2711,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>46370</v>
+        <v>45350</v>
       </c>
       <c r="C64" t="n">
-        <v>46980</v>
+        <v>45350</v>
       </c>
       <c r="D64" t="n">
-        <v>46980</v>
+        <v>45350</v>
       </c>
       <c r="E64" t="n">
-        <v>46370</v>
+        <v>45350</v>
       </c>
       <c r="F64" t="n">
-        <v>13</v>
+        <v>0.9751</v>
       </c>
       <c r="G64" t="n">
-        <v>46236.66666666666</v>
+        <v>775.5809308900003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-1140</v>
-      </c>
-      <c r="J64" t="n">
-        <v>14640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>45.73643410852713</v>
-      </c>
-      <c r="L64" t="n">
-        <v>45633</v>
+        <v>47030</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>45922.5</v>
-      </c>
-      <c r="N64" t="n">
-        <v>45896.33333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2752,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>46990</v>
+        <v>45500</v>
       </c>
       <c r="C65" t="n">
-        <v>48080</v>
+        <v>45600</v>
       </c>
       <c r="D65" t="n">
-        <v>48080</v>
+        <v>45850</v>
       </c>
       <c r="E65" t="n">
-        <v>46990</v>
+        <v>45500</v>
       </c>
       <c r="F65" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G65" t="n">
-        <v>46240.16666666666</v>
+        <v>779.5809308900003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J65" t="n">
-        <v>15740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>61.95652173913043</v>
-      </c>
-      <c r="L65" t="n">
-        <v>45861</v>
+        <v>47030</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>45978.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>45979</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +2793,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48080</v>
+        <v>45600</v>
       </c>
       <c r="C66" t="n">
-        <v>48080</v>
+        <v>45700</v>
       </c>
       <c r="D66" t="n">
-        <v>48080</v>
+        <v>45700</v>
       </c>
       <c r="E66" t="n">
-        <v>48080</v>
+        <v>45600</v>
       </c>
       <c r="F66" t="n">
-        <v>4.2433</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>46249.33333333334</v>
+        <v>782.5809308900003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-40</v>
-      </c>
-      <c r="J66" t="n">
-        <v>15740</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>83.95061728395061</v>
-      </c>
-      <c r="L66" t="n">
-        <v>46089</v>
+        <v>47030</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>46073</v>
-      </c>
-      <c r="N66" t="n">
-        <v>46058.33333333334</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2834,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>47790</v>
+        <v>45690</v>
       </c>
       <c r="C67" t="n">
-        <v>47850</v>
+        <v>45690</v>
       </c>
       <c r="D67" t="n">
-        <v>49000</v>
+        <v>45690</v>
       </c>
       <c r="E67" t="n">
-        <v>47550</v>
+        <v>45690</v>
       </c>
       <c r="F67" t="n">
-        <v>39.23235073</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>46254.83333333334</v>
+        <v>780.5809308900003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>-270</v>
-      </c>
-      <c r="J67" t="n">
-        <v>15970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>71.75792507204612</v>
-      </c>
-      <c r="L67" t="n">
-        <v>46338</v>
+        <v>47030</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>46155.5</v>
-      </c>
-      <c r="N67" t="n">
-        <v>46130.33333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2875,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>47630</v>
+        <v>45690</v>
       </c>
       <c r="C68" t="n">
-        <v>48040</v>
+        <v>45700</v>
       </c>
       <c r="D68" t="n">
-        <v>48040</v>
+        <v>45700</v>
       </c>
       <c r="E68" t="n">
-        <v>47310</v>
+        <v>45690</v>
       </c>
       <c r="F68" t="n">
-        <v>46.1787</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>46263</v>
+        <v>783.5809308900003</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>-80</v>
-      </c>
-      <c r="J68" t="n">
-        <v>16160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>73.224043715847</v>
-      </c>
-      <c r="L68" t="n">
-        <v>46606</v>
+        <v>47030</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>46248</v>
-      </c>
-      <c r="N68" t="n">
-        <v>46208.33333333334</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +2916,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>47350</v>
+        <v>45700</v>
       </c>
       <c r="C69" t="n">
-        <v>47900</v>
+        <v>45750</v>
       </c>
       <c r="D69" t="n">
-        <v>47900</v>
+        <v>45750</v>
       </c>
       <c r="E69" t="n">
-        <v>47310</v>
+        <v>45700</v>
       </c>
       <c r="F69" t="n">
-        <v>12.4151</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
-        <v>46269.33333333334</v>
+        <v>784.5809308900003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>-220</v>
-      </c>
-      <c r="J69" t="n">
-        <v>16300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>79.09604519774011</v>
-      </c>
-      <c r="L69" t="n">
-        <v>46860</v>
+        <v>47030</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>46339.5</v>
-      </c>
-      <c r="N69" t="n">
-        <v>46280</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +2957,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>46670</v>
+        <v>45750</v>
       </c>
       <c r="C70" t="n">
-        <v>46660</v>
+        <v>45750</v>
       </c>
       <c r="D70" t="n">
-        <v>46670</v>
+        <v>45750</v>
       </c>
       <c r="E70" t="n">
-        <v>46660</v>
+        <v>45750</v>
       </c>
       <c r="F70" t="n">
-        <v>17.9351</v>
+        <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>46261.83333333334</v>
+        <v>784.5809308900003</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>-1460</v>
-      </c>
-      <c r="J70" t="n">
-        <v>17540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>32.63598326359833</v>
-      </c>
-      <c r="L70" t="n">
-        <v>47016</v>
+        <v>47030</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>46372.5</v>
-      </c>
-      <c r="N70" t="n">
-        <v>46310.33333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +2998,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>47520</v>
+        <v>45750</v>
       </c>
       <c r="C71" t="n">
-        <v>47390</v>
+        <v>45750</v>
       </c>
       <c r="D71" t="n">
-        <v>47520</v>
+        <v>45750</v>
       </c>
       <c r="E71" t="n">
-        <v>46660</v>
+        <v>45750</v>
       </c>
       <c r="F71" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="G71" t="n">
-        <v>46273.33333333334</v>
+        <v>784.5809308900003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>-730</v>
-      </c>
-      <c r="J71" t="n">
-        <v>18270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>41.45454545454545</v>
-      </c>
-      <c r="L71" t="n">
-        <v>47245</v>
+        <v>47030</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>46436.5</v>
-      </c>
-      <c r="N71" t="n">
-        <v>46365</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3039,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>47510</v>
+        <v>45750</v>
       </c>
       <c r="C72" t="n">
-        <v>47430</v>
+        <v>46100</v>
       </c>
       <c r="D72" t="n">
-        <v>47510</v>
+        <v>46150</v>
       </c>
       <c r="E72" t="n">
-        <v>47430</v>
+        <v>45750</v>
       </c>
       <c r="F72" t="n">
-        <v>11.8485</v>
+        <v>1.22</v>
       </c>
       <c r="G72" t="n">
-        <v>46285.5</v>
+        <v>785.8009308900004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>-690</v>
-      </c>
-      <c r="J72" t="n">
-        <v>18310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>24.94172494172494</v>
-      </c>
-      <c r="L72" t="n">
-        <v>47477</v>
+        <v>47030</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>46493</v>
-      </c>
-      <c r="N72" t="n">
-        <v>46409.33333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +3080,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>46710</v>
+        <v>46190</v>
       </c>
       <c r="C73" t="n">
-        <v>46650</v>
+        <v>46190</v>
       </c>
       <c r="D73" t="n">
-        <v>46710</v>
+        <v>46190</v>
       </c>
       <c r="E73" t="n">
-        <v>46650</v>
+        <v>46190</v>
       </c>
       <c r="F73" t="n">
-        <v>12.4979</v>
+        <v>17.2675</v>
       </c>
       <c r="G73" t="n">
-        <v>46284.5</v>
+        <v>803.0684308900004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>-1470</v>
-      </c>
-      <c r="J73" t="n">
-        <v>19090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>-7.415730337078652</v>
-      </c>
-      <c r="L73" t="n">
-        <v>47506</v>
+        <v>47030</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>46510.5</v>
-      </c>
-      <c r="N73" t="n">
-        <v>46424.66666666666</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3121,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>46660</v>
+        <v>46210</v>
       </c>
       <c r="C74" t="n">
-        <v>47270</v>
+        <v>46210</v>
       </c>
       <c r="D74" t="n">
-        <v>47270</v>
+        <v>46210</v>
       </c>
       <c r="E74" t="n">
-        <v>46660</v>
+        <v>46210</v>
       </c>
       <c r="F74" t="n">
-        <v>5.94</v>
+        <v>0.4129</v>
       </c>
       <c r="G74" t="n">
-        <v>46286.33333333334</v>
+        <v>803.4813308900004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>-850</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>-20.40302267002519</v>
-      </c>
-      <c r="L74" t="n">
-        <v>47535</v>
+        <v>47030</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>46584</v>
-      </c>
-      <c r="N74" t="n">
-        <v>46460</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3162,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46590</v>
+        <v>46830</v>
       </c>
       <c r="C75" t="n">
-        <v>46590</v>
+        <v>46960</v>
       </c>
       <c r="D75" t="n">
-        <v>46590</v>
+        <v>46960</v>
       </c>
       <c r="E75" t="n">
-        <v>46590</v>
+        <v>46830</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7316</v>
+        <v>17.3169</v>
       </c>
       <c r="G75" t="n">
-        <v>46280.5</v>
+        <v>820.7982308900005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>-1530</v>
-      </c>
-      <c r="J75" t="n">
-        <v>20390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>-32.04301075268818</v>
-      </c>
-      <c r="L75" t="n">
-        <v>47386</v>
+        <v>47030</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>46623.5</v>
-      </c>
-      <c r="N75" t="n">
-        <v>46447.66666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3203,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47110</v>
+        <v>46250</v>
       </c>
       <c r="C76" t="n">
-        <v>46990</v>
+        <v>46190</v>
       </c>
       <c r="D76" t="n">
-        <v>47110</v>
+        <v>46250</v>
       </c>
       <c r="E76" t="n">
-        <v>46990</v>
+        <v>46190</v>
       </c>
       <c r="F76" t="n">
-        <v>0.23</v>
+        <v>6.4463</v>
       </c>
       <c r="G76" t="n">
-        <v>46279.83333333334</v>
+        <v>814.3519308900005</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>-1130</v>
-      </c>
-      <c r="J76" t="n">
-        <v>20790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>-17.84232365145228</v>
-      </c>
-      <c r="L76" t="n">
-        <v>47277</v>
+        <v>47030</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>46683</v>
-      </c>
-      <c r="N76" t="n">
-        <v>46474.33333333334</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3244,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>46030</v>
+        <v>46200</v>
       </c>
       <c r="C77" t="n">
-        <v>46020</v>
+        <v>46200</v>
       </c>
       <c r="D77" t="n">
-        <v>46030</v>
+        <v>46200</v>
       </c>
       <c r="E77" t="n">
-        <v>46020</v>
+        <v>46200</v>
       </c>
       <c r="F77" t="n">
-        <v>58.9605</v>
+        <v>1.2969</v>
       </c>
       <c r="G77" t="n">
-        <v>46263.83333333334</v>
+        <v>815.6488308900006</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>-2100</v>
-      </c>
-      <c r="J77" t="n">
-        <v>21760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>-36.07142857142857</v>
-      </c>
-      <c r="L77" t="n">
-        <v>47094</v>
+        <v>47030</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>46716</v>
-      </c>
-      <c r="N77" t="n">
-        <v>46468.33333333334</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3285,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>45150</v>
+        <v>46190</v>
       </c>
       <c r="C78" t="n">
-        <v>45150</v>
+        <v>46190</v>
       </c>
       <c r="D78" t="n">
-        <v>45150</v>
+        <v>46190</v>
       </c>
       <c r="E78" t="n">
-        <v>45140</v>
+        <v>46190</v>
       </c>
       <c r="F78" t="n">
-        <v>9.679500000000001</v>
+        <v>5.1309</v>
       </c>
       <c r="G78" t="n">
-        <v>46236.66666666666</v>
+        <v>810.5179308900006</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>-2970</v>
-      </c>
-      <c r="J78" t="n">
-        <v>22630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>-43.44391785150079</v>
-      </c>
-      <c r="L78" t="n">
-        <v>46805</v>
+        <v>47030</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>46705.5</v>
-      </c>
-      <c r="N78" t="n">
-        <v>46433.66666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3326,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>45900</v>
+        <v>46190</v>
       </c>
       <c r="C79" t="n">
-        <v>45140</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="n">
-        <v>45900</v>
+        <v>46190</v>
       </c>
       <c r="E79" t="n">
-        <v>45140</v>
+        <v>46070</v>
       </c>
       <c r="F79" t="n">
-        <v>2.023</v>
+        <v>6.1915</v>
       </c>
       <c r="G79" t="n">
-        <v>46209.33333333334</v>
+        <v>804.3264308900006</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-2980</v>
-      </c>
-      <c r="J79" t="n">
-        <v>22640</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>-29.80392156862745</v>
-      </c>
-      <c r="L79" t="n">
-        <v>46529</v>
+        <v>47030</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>46694.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>46402.66666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3367,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>45100</v>
+        <v>46000</v>
       </c>
       <c r="C80" t="n">
-        <v>45100</v>
+        <v>46000</v>
       </c>
       <c r="D80" t="n">
-        <v>45100</v>
+        <v>46000</v>
       </c>
       <c r="E80" t="n">
-        <v>45100</v>
+        <v>46000</v>
       </c>
       <c r="F80" t="n">
-        <v>3.9805</v>
+        <v>0.2</v>
       </c>
       <c r="G80" t="n">
-        <v>46181.33333333334</v>
+        <v>804.1264308900005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>-3020</v>
-      </c>
-      <c r="J80" t="n">
-        <v>22680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>-51.92743764172335</v>
-      </c>
-      <c r="L80" t="n">
-        <v>46373</v>
+        <v>47030</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>46694.5</v>
-      </c>
-      <c r="N80" t="n">
-        <v>46372.66666666666</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,49 +3408,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>45220</v>
+        <v>46110</v>
       </c>
       <c r="C81" t="n">
-        <v>45220</v>
+        <v>46110</v>
       </c>
       <c r="D81" t="n">
-        <v>45220</v>
+        <v>46110</v>
       </c>
       <c r="E81" t="n">
-        <v>45220</v>
+        <v>46110</v>
       </c>
       <c r="F81" t="n">
-        <v>2.12</v>
+        <v>0.013</v>
       </c>
       <c r="G81" t="n">
-        <v>46156.66666666666</v>
+        <v>804.1394308900005</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>-2900</v>
-      </c>
-      <c r="J81" t="n">
-        <v>22800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>-49.22048997772828</v>
-      </c>
-      <c r="L81" t="n">
-        <v>46156</v>
+        <v>47030</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>46700.5</v>
-      </c>
-      <c r="N81" t="n">
-        <v>46343</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3449,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>45220</v>
+        <v>46520</v>
       </c>
       <c r="C82" t="n">
-        <v>45100</v>
+        <v>46300</v>
       </c>
       <c r="D82" t="n">
-        <v>45220</v>
+        <v>46520</v>
       </c>
       <c r="E82" t="n">
-        <v>45100</v>
+        <v>46300</v>
       </c>
       <c r="F82" t="n">
-        <v>9.4694</v>
+        <v>16.9173</v>
       </c>
       <c r="G82" t="n">
-        <v>46131.5</v>
+        <v>821.0567308900005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>-3020</v>
-      </c>
-      <c r="J82" t="n">
-        <v>22920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>-40.46997389033942</v>
-      </c>
-      <c r="L82" t="n">
-        <v>45923</v>
+        <v>47030</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>46700</v>
-      </c>
-      <c r="N82" t="n">
-        <v>46303</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3490,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45110</v>
+        <v>46300</v>
       </c>
       <c r="C83" t="n">
-        <v>44900</v>
+        <v>46300</v>
       </c>
       <c r="D83" t="n">
-        <v>45110</v>
+        <v>46300</v>
       </c>
       <c r="E83" t="n">
-        <v>44900</v>
+        <v>46300</v>
       </c>
       <c r="F83" t="n">
-        <v>6.8248</v>
+        <v>12.6635</v>
       </c>
       <c r="G83" t="n">
-        <v>46108.66666666666</v>
+        <v>821.0567308900005</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>-3220</v>
-      </c>
-      <c r="J83" t="n">
-        <v>23120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>-69.50146627565982</v>
-      </c>
-      <c r="L83" t="n">
-        <v>45748</v>
+        <v>47030</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>46627</v>
-      </c>
-      <c r="N83" t="n">
-        <v>46256.33333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3531,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>44910</v>
+        <v>46190</v>
       </c>
       <c r="C84" t="n">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="D84" t="n">
-        <v>44910</v>
+        <v>46190</v>
       </c>
       <c r="E84" t="n">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="F84" t="n">
-        <v>9.5656</v>
+        <v>12.6636</v>
       </c>
       <c r="G84" t="n">
-        <v>46097.16666666666</v>
+        <v>808.3931308900005</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>-3220</v>
-      </c>
-      <c r="J84" t="n">
-        <v>23120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>-61.90476190476191</v>
-      </c>
-      <c r="L84" t="n">
-        <v>45511</v>
+        <v>47030</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>46523</v>
-      </c>
-      <c r="N84" t="n">
-        <v>46226.33333333334</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3572,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="C85" t="n">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="D85" t="n">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="E85" t="n">
-        <v>44900</v>
+        <v>45800</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6061</v>
+        <v>10.1396</v>
       </c>
       <c r="G85" t="n">
-        <v>46070.66666666666</v>
+        <v>808.3931308900005</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>-3220</v>
-      </c>
-      <c r="J85" t="n">
-        <v>23120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>-89.69957081545064</v>
-      </c>
-      <c r="L85" t="n">
-        <v>45342</v>
+        <v>47030</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>46364</v>
-      </c>
-      <c r="N85" t="n">
-        <v>46196.33333333334</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +3613,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>45840</v>
+        <v>45800</v>
       </c>
       <c r="C86" t="n">
-        <v>45840</v>
+        <v>45800</v>
       </c>
       <c r="D86" t="n">
-        <v>45840</v>
+        <v>45800</v>
       </c>
       <c r="E86" t="n">
-        <v>45840</v>
+        <v>45800</v>
       </c>
       <c r="F86" t="n">
-        <v>1.793</v>
+        <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>46074.66666666666</v>
+        <v>808.3931308900005</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>-2280</v>
-      </c>
-      <c r="J86" t="n">
-        <v>24060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>-7.82608695652174</v>
-      </c>
-      <c r="L86" t="n">
-        <v>45227</v>
+        <v>47030</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>46252</v>
-      </c>
-      <c r="N86" t="n">
-        <v>46197.66666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +3654,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>45970</v>
+        <v>45360</v>
       </c>
       <c r="C87" t="n">
-        <v>45970</v>
+        <v>45360</v>
       </c>
       <c r="D87" t="n">
-        <v>45970</v>
+        <v>45360</v>
       </c>
       <c r="E87" t="n">
-        <v>45970</v>
+        <v>45360</v>
       </c>
       <c r="F87" t="n">
-        <v>6.52599521</v>
+        <v>4.01</v>
       </c>
       <c r="G87" t="n">
-        <v>46079.5</v>
+        <v>804.3831308900005</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>-2150</v>
-      </c>
-      <c r="J87" t="n">
-        <v>24190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>52.56410256410257</v>
-      </c>
-      <c r="L87" t="n">
-        <v>45222</v>
+        <v>47030</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>46158</v>
-      </c>
-      <c r="N87" t="n">
-        <v>46218</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +3695,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>45460</v>
+        <v>45360</v>
       </c>
       <c r="C88" t="n">
-        <v>45460</v>
+        <v>45360</v>
       </c>
       <c r="D88" t="n">
-        <v>45460</v>
+        <v>45360</v>
       </c>
       <c r="E88" t="n">
-        <v>45460</v>
+        <v>45360</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4182</v>
+        <v>5</v>
       </c>
       <c r="G88" t="n">
-        <v>46075.83333333334</v>
+        <v>804.3831308900005</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>-2660</v>
-      </c>
-      <c r="J88" t="n">
-        <v>24700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>15.53398058252427</v>
-      </c>
-      <c r="L88" t="n">
-        <v>45253</v>
+        <v>47030</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>46029</v>
-      </c>
-      <c r="N88" t="n">
-        <v>46221.33333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,49 +3736,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>45800</v>
+        <v>45360</v>
       </c>
       <c r="C89" t="n">
-        <v>45800</v>
+        <v>45360</v>
       </c>
       <c r="D89" t="n">
-        <v>45800</v>
+        <v>45360</v>
       </c>
       <c r="E89" t="n">
-        <v>45800</v>
+        <v>45360</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>46063.5</v>
+        <v>804.3831308900005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>-2320</v>
-      </c>
-      <c r="J89" t="n">
-        <v>25040</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>29.66101694915254</v>
-      </c>
-      <c r="L89" t="n">
-        <v>45319</v>
+        <v>47030</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>45924</v>
-      </c>
-      <c r="N89" t="n">
-        <v>46236</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +3777,818 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45880</v>
+        <v>45350</v>
       </c>
       <c r="C90" t="n">
-        <v>45880</v>
+        <v>45100</v>
       </c>
       <c r="D90" t="n">
-        <v>45880</v>
+        <v>45350</v>
       </c>
       <c r="E90" t="n">
-        <v>45880</v>
+        <v>45100</v>
       </c>
       <c r="F90" t="n">
-        <v>1.046</v>
+        <v>9.0928</v>
       </c>
       <c r="G90" t="n">
-        <v>46065.66666666666</v>
+        <v>795.2903308900005</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>-2240</v>
-      </c>
-      <c r="J90" t="n">
-        <v>25120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>28.44827586206897</v>
-      </c>
-      <c r="L90" t="n">
-        <v>45397</v>
+        <v>47030</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>45885</v>
-      </c>
-      <c r="N90" t="n">
-        <v>46262</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C91" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D91" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E91" t="n">
+        <v>45100</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.4286</v>
+      </c>
+      <c r="G91" t="n">
+        <v>795.2903308900005</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C92" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D92" t="n">
+        <v>45110</v>
+      </c>
+      <c r="E92" t="n">
+        <v>45110</v>
+      </c>
+      <c r="F92" t="n">
+        <v>24.2181</v>
+      </c>
+      <c r="G92" t="n">
+        <v>819.5084308900006</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C93" t="n">
+        <v>46360</v>
+      </c>
+      <c r="D93" t="n">
+        <v>46380</v>
+      </c>
+      <c r="E93" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F93" t="n">
+        <v>71.9799</v>
+      </c>
+      <c r="G93" t="n">
+        <v>891.4883308900006</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>46370</v>
+      </c>
+      <c r="C94" t="n">
+        <v>46980</v>
+      </c>
+      <c r="D94" t="n">
+        <v>46980</v>
+      </c>
+      <c r="E94" t="n">
+        <v>46370</v>
+      </c>
+      <c r="F94" t="n">
+        <v>13</v>
+      </c>
+      <c r="G94" t="n">
+        <v>904.4883308900006</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>46990</v>
+      </c>
+      <c r="C95" t="n">
+        <v>48080</v>
+      </c>
+      <c r="D95" t="n">
+        <v>48080</v>
+      </c>
+      <c r="E95" t="n">
+        <v>46990</v>
+      </c>
+      <c r="F95" t="n">
+        <v>19</v>
+      </c>
+      <c r="G95" t="n">
+        <v>923.4883308900006</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>48080</v>
+      </c>
+      <c r="C96" t="n">
+        <v>48080</v>
+      </c>
+      <c r="D96" t="n">
+        <v>48080</v>
+      </c>
+      <c r="E96" t="n">
+        <v>48080</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4.2433</v>
+      </c>
+      <c r="G96" t="n">
+        <v>923.4883308900006</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C97" t="n">
+        <v>47850</v>
+      </c>
+      <c r="D97" t="n">
+        <v>49000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>47550</v>
+      </c>
+      <c r="F97" t="n">
+        <v>39.23235073</v>
+      </c>
+      <c r="G97" t="n">
+        <v>884.2559801600006</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>47630</v>
+      </c>
+      <c r="C98" t="n">
+        <v>48040</v>
+      </c>
+      <c r="D98" t="n">
+        <v>48040</v>
+      </c>
+      <c r="E98" t="n">
+        <v>47310</v>
+      </c>
+      <c r="F98" t="n">
+        <v>46.1787</v>
+      </c>
+      <c r="G98" t="n">
+        <v>930.4346801600007</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>47350</v>
+      </c>
+      <c r="C99" t="n">
+        <v>47900</v>
+      </c>
+      <c r="D99" t="n">
+        <v>47900</v>
+      </c>
+      <c r="E99" t="n">
+        <v>47310</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12.4151</v>
+      </c>
+      <c r="G99" t="n">
+        <v>918.0195801600006</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>46670</v>
+      </c>
+      <c r="C100" t="n">
+        <v>46660</v>
+      </c>
+      <c r="D100" t="n">
+        <v>46670</v>
+      </c>
+      <c r="E100" t="n">
+        <v>46660</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17.9351</v>
+      </c>
+      <c r="G100" t="n">
+        <v>900.0844801600006</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>47520</v>
+      </c>
+      <c r="C101" t="n">
+        <v>47390</v>
+      </c>
+      <c r="D101" t="n">
+        <v>47520</v>
+      </c>
+      <c r="E101" t="n">
+        <v>46660</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G101" t="n">
+        <v>901.7744801600006</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>47510</v>
+      </c>
+      <c r="C102" t="n">
+        <v>47430</v>
+      </c>
+      <c r="D102" t="n">
+        <v>47510</v>
+      </c>
+      <c r="E102" t="n">
+        <v>47430</v>
+      </c>
+      <c r="F102" t="n">
+        <v>11.8485</v>
+      </c>
+      <c r="G102" t="n">
+        <v>913.6229801600006</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>46710</v>
+      </c>
+      <c r="C103" t="n">
+        <v>46650</v>
+      </c>
+      <c r="D103" t="n">
+        <v>46710</v>
+      </c>
+      <c r="E103" t="n">
+        <v>46650</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12.4979</v>
+      </c>
+      <c r="G103" t="n">
+        <v>901.1250801600006</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>46660</v>
+      </c>
+      <c r="C104" t="n">
+        <v>47270</v>
+      </c>
+      <c r="D104" t="n">
+        <v>47270</v>
+      </c>
+      <c r="E104" t="n">
+        <v>46660</v>
+      </c>
+      <c r="F104" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G104" t="n">
+        <v>907.0650801600007</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>46590</v>
+      </c>
+      <c r="C105" t="n">
+        <v>46590</v>
+      </c>
+      <c r="D105" t="n">
+        <v>46590</v>
+      </c>
+      <c r="E105" t="n">
+        <v>46590</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="G105" t="n">
+        <v>906.3334801600007</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>47110</v>
+      </c>
+      <c r="C106" t="n">
+        <v>46990</v>
+      </c>
+      <c r="D106" t="n">
+        <v>47110</v>
+      </c>
+      <c r="E106" t="n">
+        <v>46990</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G106" t="n">
+        <v>906.5634801600007</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C107" t="n">
+        <v>46020</v>
+      </c>
+      <c r="D107" t="n">
+        <v>46030</v>
+      </c>
+      <c r="E107" t="n">
+        <v>46020</v>
+      </c>
+      <c r="F107" t="n">
+        <v>58.9605</v>
+      </c>
+      <c r="G107" t="n">
+        <v>847.6029801600007</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C108" t="n">
+        <v>45150</v>
+      </c>
+      <c r="D108" t="n">
+        <v>45150</v>
+      </c>
+      <c r="E108" t="n">
+        <v>45140</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9.679500000000001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>837.9234801600007</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>45900</v>
+      </c>
+      <c r="C109" t="n">
+        <v>45140</v>
+      </c>
+      <c r="D109" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E109" t="n">
+        <v>45140</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="G109" t="n">
+        <v>835.9004801600007</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>47030</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1189,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1329,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1364,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1434,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1539,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1644,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2041,6 +2091,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2084,6 +2135,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2127,6 +2179,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2170,6 +2223,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2213,6 +2267,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2254,6 +2309,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2295,6 +2351,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2336,6 +2393,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2377,6 +2435,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2418,6 +2477,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2459,6 +2519,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2500,6 +2561,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2541,6 +2603,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2582,6 +2645,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2623,6 +2687,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2664,6 +2729,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2705,6 +2771,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,6 +2813,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2787,6 +2855,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2828,6 +2897,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2869,6 +2939,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2910,6 +2981,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2951,6 +3023,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,6 +3065,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3033,6 +3107,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3074,6 +3149,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3115,6 +3191,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3156,6 +3233,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3197,6 +3275,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3238,6 +3317,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3279,6 +3359,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3320,6 +3401,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3361,6 +3443,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3402,6 +3485,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3443,6 +3527,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3484,6 +3569,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3525,6 +3611,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3566,6 +3653,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3607,6 +3695,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3648,6 +3737,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3689,6 +3779,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3730,6 +3821,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3771,6 +3863,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3812,6 +3905,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3853,6 +3947,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3894,6 +3989,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3935,6 +4031,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3976,6 +4073,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4003,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
@@ -4011,11 +4109,14 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>1.017326174782054</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.06571859513036</v>
       </c>
     </row>
     <row r="96">
@@ -4044,20 +4145,15 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4085,20 +4181,15 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4126,20 +4217,15 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4167,20 +4253,15 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4208,20 +4289,15 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4252,17 +4328,12 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4293,17 +4364,12 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4334,17 +4400,12 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4375,17 +4436,12 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4416,17 +4472,12 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4457,17 +4508,12 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4498,17 +4544,12 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4539,17 +4580,12 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4580,17 +4616,12 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47010</v>
+        <v>49210</v>
       </c>
       <c r="C2" t="n">
-        <v>47010</v>
+        <v>49200</v>
       </c>
       <c r="D2" t="n">
-        <v>47010</v>
+        <v>49210</v>
       </c>
       <c r="E2" t="n">
-        <v>47010</v>
+        <v>49200</v>
       </c>
       <c r="F2" t="n">
-        <v>14.6426</v>
+        <v>26.71</v>
       </c>
       <c r="G2" t="n">
-        <v>474.52574926</v>
+        <v>617.77434926</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="C3" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="D3" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="E3" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0543</v>
+        <v>1.5507</v>
       </c>
       <c r="G3" t="n">
-        <v>474.58004926</v>
+        <v>617.77434926</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>47500</v>
+        <v>49470</v>
       </c>
       <c r="C4" t="n">
-        <v>47500</v>
+        <v>49470</v>
       </c>
       <c r="D4" t="n">
-        <v>47500</v>
+        <v>49470</v>
       </c>
       <c r="E4" t="n">
-        <v>47500</v>
+        <v>49470</v>
       </c>
       <c r="F4" t="n">
-        <v>4.9457</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>474.58004926</v>
+        <v>619.06434926</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48040</v>
+        <v>49470</v>
       </c>
       <c r="C5" t="n">
-        <v>48040</v>
+        <v>49470</v>
       </c>
       <c r="D5" t="n">
-        <v>48040</v>
+        <v>49470</v>
       </c>
       <c r="E5" t="n">
-        <v>48040</v>
+        <v>49470</v>
       </c>
       <c r="F5" t="n">
-        <v>0.051</v>
+        <v>15.1505</v>
       </c>
       <c r="G5" t="n">
-        <v>474.63104926</v>
+        <v>619.06434926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="C6" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="D6" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="E6" t="n">
-        <v>47500</v>
+        <v>49200</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5278</v>
+        <v>4.96</v>
       </c>
       <c r="G6" t="n">
-        <v>474.10324926</v>
+        <v>614.1043492599999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>47510</v>
+        <v>49200</v>
       </c>
       <c r="C7" t="n">
-        <v>47510</v>
+        <v>49000</v>
       </c>
       <c r="D7" t="n">
-        <v>47510</v>
+        <v>49200</v>
       </c>
       <c r="E7" t="n">
-        <v>47510</v>
+        <v>49000</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3681</v>
+        <v>76.1003</v>
       </c>
       <c r="G7" t="n">
-        <v>475.47134926</v>
+        <v>538.0040492599999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="C8" t="n">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="D8" t="n">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="E8" t="n">
-        <v>47500</v>
+        <v>48500</v>
       </c>
       <c r="F8" t="n">
-        <v>4.4775</v>
+        <v>23.756</v>
       </c>
       <c r="G8" t="n">
-        <v>470.99384926</v>
+        <v>514.2480492599999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47500</v>
+        <v>47730</v>
       </c>
       <c r="C9" t="n">
-        <v>47500</v>
+        <v>47730</v>
       </c>
       <c r="D9" t="n">
-        <v>47500</v>
+        <v>47730</v>
       </c>
       <c r="E9" t="n">
-        <v>47500</v>
+        <v>47730</v>
       </c>
       <c r="F9" t="n">
-        <v>1.688</v>
+        <v>2.3235</v>
       </c>
       <c r="G9" t="n">
-        <v>470.99384926</v>
+        <v>511.9245492599999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>47050</v>
+        <v>48260</v>
       </c>
       <c r="C10" t="n">
-        <v>47030</v>
+        <v>48260</v>
       </c>
       <c r="D10" t="n">
-        <v>47050</v>
+        <v>48260</v>
       </c>
       <c r="E10" t="n">
-        <v>47030</v>
+        <v>48260</v>
       </c>
       <c r="F10" t="n">
-        <v>3.4002</v>
+        <v>0.1097</v>
       </c>
       <c r="G10" t="n">
-        <v>467.59364926</v>
+        <v>512.0342492599999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>47610</v>
+        <v>49420</v>
       </c>
       <c r="C11" t="n">
-        <v>47610</v>
+        <v>49420</v>
       </c>
       <c r="D11" t="n">
-        <v>47610</v>
+        <v>49420</v>
       </c>
       <c r="E11" t="n">
-        <v>47610</v>
+        <v>49420</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0479</v>
+        <v>2.1354</v>
       </c>
       <c r="G11" t="n">
-        <v>467.64154926</v>
+        <v>514.1696492599999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>47030</v>
+        <v>48210</v>
       </c>
       <c r="C12" t="n">
-        <v>47020</v>
+        <v>48210</v>
       </c>
       <c r="D12" t="n">
-        <v>47030</v>
+        <v>48210</v>
       </c>
       <c r="E12" t="n">
-        <v>47020</v>
+        <v>48210</v>
       </c>
       <c r="F12" t="n">
-        <v>20.3264</v>
+        <v>7.7156</v>
       </c>
       <c r="G12" t="n">
-        <v>447.3151492600001</v>
+        <v>506.4540492599999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>47020</v>
+        <v>48020</v>
       </c>
       <c r="C13" t="n">
-        <v>47160</v>
+        <v>47060</v>
       </c>
       <c r="D13" t="n">
-        <v>47160</v>
+        <v>48020</v>
       </c>
       <c r="E13" t="n">
-        <v>47020</v>
+        <v>47060</v>
       </c>
       <c r="F13" t="n">
-        <v>29.714</v>
+        <v>6.0395</v>
       </c>
       <c r="G13" t="n">
-        <v>477.0291492600001</v>
+        <v>500.4145492599999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46580</v>
+        <v>47270</v>
       </c>
       <c r="C14" t="n">
-        <v>46410</v>
+        <v>47190</v>
       </c>
       <c r="D14" t="n">
-        <v>46580</v>
+        <v>47270</v>
       </c>
       <c r="E14" t="n">
-        <v>46410</v>
+        <v>47190</v>
       </c>
       <c r="F14" t="n">
-        <v>8.6913</v>
+        <v>1.247</v>
       </c>
       <c r="G14" t="n">
-        <v>468.33784926</v>
+        <v>501.66154926</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46830</v>
+        <v>48000</v>
       </c>
       <c r="C15" t="n">
-        <v>46830</v>
+        <v>48000</v>
       </c>
       <c r="D15" t="n">
-        <v>46830</v>
+        <v>48000</v>
       </c>
       <c r="E15" t="n">
-        <v>46830</v>
+        <v>48000</v>
       </c>
       <c r="F15" t="n">
-        <v>2.07</v>
+        <v>0.061</v>
       </c>
       <c r="G15" t="n">
-        <v>470.40784926</v>
+        <v>501.7225492599999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>46800</v>
+        <v>47500</v>
       </c>
       <c r="C16" t="n">
-        <v>47030</v>
+        <v>47500</v>
       </c>
       <c r="D16" t="n">
-        <v>47030</v>
+        <v>47500</v>
       </c>
       <c r="E16" t="n">
-        <v>46800</v>
+        <v>47500</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3.3325</v>
       </c>
       <c r="G16" t="n">
-        <v>472.40784926</v>
+        <v>498.39004926</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>47130</v>
+        <v>47120</v>
       </c>
       <c r="C17" t="n">
-        <v>47340</v>
+        <v>47010</v>
       </c>
       <c r="D17" t="n">
-        <v>47340</v>
+        <v>47120</v>
       </c>
       <c r="E17" t="n">
-        <v>47080</v>
+        <v>47010</v>
       </c>
       <c r="F17" t="n">
-        <v>37.6979</v>
+        <v>13.3007</v>
       </c>
       <c r="G17" t="n">
-        <v>510.10574926</v>
+        <v>485.0893492599999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>47460</v>
+        <v>47500</v>
       </c>
       <c r="C18" t="n">
-        <v>48160</v>
+        <v>47500</v>
       </c>
       <c r="D18" t="n">
-        <v>48160</v>
+        <v>47500</v>
       </c>
       <c r="E18" t="n">
-        <v>47460</v>
+        <v>47500</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>0.4982</v>
       </c>
       <c r="G18" t="n">
-        <v>514.10574926</v>
+        <v>485.5875492599999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>48150</v>
+        <v>47510</v>
       </c>
       <c r="C19" t="n">
-        <v>49200</v>
+        <v>47510</v>
       </c>
       <c r="D19" t="n">
-        <v>49200</v>
+        <v>47510</v>
       </c>
       <c r="E19" t="n">
-        <v>48150</v>
+        <v>47510</v>
       </c>
       <c r="F19" t="n">
-        <v>150.99718163</v>
+        <v>0.6975</v>
       </c>
       <c r="G19" t="n">
-        <v>665.10293089</v>
+        <v>486.2850492599999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>49200</v>
+        <v>47510</v>
       </c>
       <c r="C20" t="n">
-        <v>48040</v>
+        <v>47510</v>
       </c>
       <c r="D20" t="n">
-        <v>49200</v>
+        <v>47510</v>
       </c>
       <c r="E20" t="n">
-        <v>48040</v>
+        <v>47510</v>
       </c>
       <c r="F20" t="n">
-        <v>28.9962</v>
+        <v>1.6873</v>
       </c>
       <c r="G20" t="n">
-        <v>636.10673089</v>
+        <v>486.2850492599999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>49190</v>
+        <v>48040</v>
       </c>
       <c r="C21" t="n">
-        <v>49420</v>
+        <v>48040</v>
       </c>
       <c r="D21" t="n">
-        <v>49420</v>
+        <v>48040</v>
       </c>
       <c r="E21" t="n">
-        <v>49190</v>
+        <v>48040</v>
       </c>
       <c r="F21" t="n">
-        <v>44.0949</v>
+        <v>0.0579</v>
       </c>
       <c r="G21" t="n">
-        <v>680.20163089</v>
+        <v>486.34294926</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>49000</v>
+        <v>47510</v>
       </c>
       <c r="C22" t="n">
-        <v>49000</v>
+        <v>47510</v>
       </c>
       <c r="D22" t="n">
-        <v>49000</v>
+        <v>47510</v>
       </c>
       <c r="E22" t="n">
-        <v>49000</v>
+        <v>47510</v>
       </c>
       <c r="F22" t="n">
-        <v>1.5318</v>
+        <v>0.0578</v>
       </c>
       <c r="G22" t="n">
-        <v>678.6698308900001</v>
+        <v>486.28514926</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>49410</v>
+        <v>47500</v>
       </c>
       <c r="C23" t="n">
-        <v>49410</v>
+        <v>47500</v>
       </c>
       <c r="D23" t="n">
-        <v>49410</v>
+        <v>47500</v>
       </c>
       <c r="E23" t="n">
-        <v>48990</v>
+        <v>47500</v>
       </c>
       <c r="F23" t="n">
-        <v>26.0798</v>
+        <v>2.6763</v>
       </c>
       <c r="G23" t="n">
-        <v>704.74963089</v>
+        <v>483.6088492599999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>49410</v>
+        <v>47510</v>
       </c>
       <c r="C24" t="n">
-        <v>49420</v>
+        <v>47500</v>
       </c>
       <c r="D24" t="n">
-        <v>49420</v>
+        <v>47510</v>
       </c>
       <c r="E24" t="n">
-        <v>49410</v>
+        <v>47500</v>
       </c>
       <c r="F24" t="n">
-        <v>8.4688</v>
+        <v>9.8894</v>
       </c>
       <c r="G24" t="n">
-        <v>713.21843089</v>
+        <v>483.6088492599999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>49420</v>
+        <v>47510</v>
       </c>
       <c r="C25" t="n">
-        <v>49460</v>
+        <v>47500</v>
       </c>
       <c r="D25" t="n">
-        <v>49460</v>
+        <v>47510</v>
       </c>
       <c r="E25" t="n">
-        <v>49420</v>
+        <v>47500</v>
       </c>
       <c r="F25" t="n">
-        <v>8.462400000000001</v>
+        <v>16.3994</v>
       </c>
       <c r="G25" t="n">
-        <v>721.68083089</v>
+        <v>483.6088492599999</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>49000</v>
+        <v>47510</v>
       </c>
       <c r="C26" t="n">
-        <v>49000</v>
+        <v>47500</v>
       </c>
       <c r="D26" t="n">
-        <v>49000</v>
+        <v>47510</v>
       </c>
       <c r="E26" t="n">
-        <v>49000</v>
+        <v>47500</v>
       </c>
       <c r="F26" t="n">
-        <v>38.9756</v>
+        <v>7.5921</v>
       </c>
       <c r="G26" t="n">
-        <v>682.7052308900001</v>
+        <v>483.6088492599999</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48730</v>
+        <v>47360</v>
       </c>
       <c r="C27" t="n">
-        <v>49460</v>
+        <v>47360</v>
       </c>
       <c r="D27" t="n">
-        <v>49460</v>
+        <v>47360</v>
       </c>
       <c r="E27" t="n">
-        <v>48720</v>
+        <v>47360</v>
       </c>
       <c r="F27" t="n">
-        <v>14.1675</v>
+        <v>1.06</v>
       </c>
       <c r="G27" t="n">
-        <v>696.8727308900001</v>
+        <v>482.5488492599999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>48700</v>
+        <v>47350</v>
       </c>
       <c r="C28" t="n">
-        <v>48500</v>
+        <v>47010</v>
       </c>
       <c r="D28" t="n">
-        <v>48990</v>
+        <v>47350</v>
       </c>
       <c r="E28" t="n">
-        <v>48500</v>
+        <v>47010</v>
       </c>
       <c r="F28" t="n">
-        <v>45.7989</v>
+        <v>1.34</v>
       </c>
       <c r="G28" t="n">
-        <v>651.0738308900001</v>
+        <v>481.20884926</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>48990</v>
+        <v>47010</v>
       </c>
       <c r="C29" t="n">
-        <v>49450</v>
+        <v>47000</v>
       </c>
       <c r="D29" t="n">
-        <v>49460</v>
+        <v>47010</v>
       </c>
       <c r="E29" t="n">
-        <v>48460</v>
+        <v>47000</v>
       </c>
       <c r="F29" t="n">
-        <v>39.9937</v>
+        <v>11.784</v>
       </c>
       <c r="G29" t="n">
-        <v>691.0675308900001</v>
+        <v>469.42484926</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>47860</v>
+        <v>47010</v>
       </c>
       <c r="C30" t="n">
-        <v>48170</v>
+        <v>47010</v>
       </c>
       <c r="D30" t="n">
-        <v>48180</v>
+        <v>47010</v>
       </c>
       <c r="E30" t="n">
-        <v>47860</v>
+        <v>47010</v>
       </c>
       <c r="F30" t="n">
-        <v>4.5367</v>
+        <v>5.1009</v>
       </c>
       <c r="G30" t="n">
-        <v>686.5308308900001</v>
+        <v>474.52574926</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>48080</v>
+        <v>47010</v>
       </c>
       <c r="C31" t="n">
-        <v>48040</v>
+        <v>47010</v>
       </c>
       <c r="D31" t="n">
-        <v>48080</v>
+        <v>47010</v>
       </c>
       <c r="E31" t="n">
-        <v>48040</v>
+        <v>47010</v>
       </c>
       <c r="F31" t="n">
-        <v>6.2857</v>
+        <v>14.6426</v>
       </c>
       <c r="G31" t="n">
-        <v>680.24513089</v>
+        <v>474.52574926</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>48110</v>
+        <v>47500</v>
       </c>
       <c r="C32" t="n">
-        <v>48120</v>
+        <v>47500</v>
       </c>
       <c r="D32" t="n">
-        <v>48120</v>
+        <v>47500</v>
       </c>
       <c r="E32" t="n">
-        <v>48110</v>
+        <v>47500</v>
       </c>
       <c r="F32" t="n">
-        <v>10.6892</v>
+        <v>0.0543</v>
       </c>
       <c r="G32" t="n">
-        <v>690.9343308900001</v>
+        <v>474.58004926</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>48060</v>
+        <v>47500</v>
       </c>
       <c r="C33" t="n">
-        <v>48050</v>
+        <v>47500</v>
       </c>
       <c r="D33" t="n">
-        <v>48060</v>
+        <v>47500</v>
       </c>
       <c r="E33" t="n">
-        <v>48050</v>
+        <v>47500</v>
       </c>
       <c r="F33" t="n">
-        <v>11.7045</v>
+        <v>4.9457</v>
       </c>
       <c r="G33" t="n">
-        <v>679.22983089</v>
+        <v>474.58004926</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>47750</v>
+        <v>48040</v>
       </c>
       <c r="C34" t="n">
-        <v>47750</v>
+        <v>48040</v>
       </c>
       <c r="D34" t="n">
-        <v>47750</v>
+        <v>48040</v>
       </c>
       <c r="E34" t="n">
-        <v>47750</v>
+        <v>48040</v>
       </c>
       <c r="F34" t="n">
-        <v>3.7832</v>
+        <v>0.051</v>
       </c>
       <c r="G34" t="n">
-        <v>675.4466308900001</v>
+        <v>474.63104926</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>47850</v>
+        <v>47500</v>
       </c>
       <c r="C35" t="n">
-        <v>47870</v>
+        <v>47500</v>
       </c>
       <c r="D35" t="n">
-        <v>47870</v>
+        <v>47500</v>
       </c>
       <c r="E35" t="n">
-        <v>47850</v>
+        <v>47500</v>
       </c>
       <c r="F35" t="n">
-        <v>24.19</v>
+        <v>0.5278</v>
       </c>
       <c r="G35" t="n">
-        <v>699.6366308900001</v>
+        <v>474.10324926</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>47630</v>
+        <v>47510</v>
       </c>
       <c r="C36" t="n">
-        <v>47530</v>
+        <v>47510</v>
       </c>
       <c r="D36" t="n">
-        <v>47630</v>
+        <v>47510</v>
       </c>
       <c r="E36" t="n">
-        <v>47530</v>
+        <v>47510</v>
       </c>
       <c r="F36" t="n">
-        <v>20.437</v>
+        <v>1.3681</v>
       </c>
       <c r="G36" t="n">
-        <v>679.1996308900001</v>
+        <v>475.47134926</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>47530</v>
+        <v>47500</v>
       </c>
       <c r="C37" t="n">
-        <v>47520</v>
+        <v>47500</v>
       </c>
       <c r="D37" t="n">
-        <v>47530</v>
+        <v>47500</v>
       </c>
       <c r="E37" t="n">
-        <v>47520</v>
+        <v>47500</v>
       </c>
       <c r="F37" t="n">
-        <v>8.4376</v>
+        <v>4.4775</v>
       </c>
       <c r="G37" t="n">
-        <v>670.7620308900001</v>
+        <v>470.99384926</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="C38" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="D38" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="E38" t="n">
-        <v>47550</v>
+        <v>47500</v>
       </c>
       <c r="F38" t="n">
-        <v>1.7566</v>
+        <v>1.688</v>
       </c>
       <c r="G38" t="n">
-        <v>672.5186308900002</v>
+        <v>470.99384926</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>47530</v>
+        <v>47050</v>
       </c>
       <c r="C39" t="n">
-        <v>47520</v>
+        <v>47030</v>
       </c>
       <c r="D39" t="n">
-        <v>47530</v>
+        <v>47050</v>
       </c>
       <c r="E39" t="n">
-        <v>47520</v>
+        <v>47030</v>
       </c>
       <c r="F39" t="n">
-        <v>6.3639</v>
+        <v>3.4002</v>
       </c>
       <c r="G39" t="n">
-        <v>666.1547308900002</v>
+        <v>467.59364926</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>47110</v>
+        <v>47610</v>
       </c>
       <c r="C40" t="n">
-        <v>47110</v>
+        <v>47610</v>
       </c>
       <c r="D40" t="n">
-        <v>47110</v>
+        <v>47610</v>
       </c>
       <c r="E40" t="n">
-        <v>47110</v>
+        <v>47610</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4134</v>
+        <v>0.0479</v>
       </c>
       <c r="G40" t="n">
-        <v>665.7413308900002</v>
+        <v>467.64154926</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47330</v>
+        <v>47030</v>
       </c>
       <c r="C41" t="n">
-        <v>46700</v>
+        <v>47020</v>
       </c>
       <c r="D41" t="n">
-        <v>47330</v>
+        <v>47030</v>
       </c>
       <c r="E41" t="n">
-        <v>46700</v>
+        <v>47020</v>
       </c>
       <c r="F41" t="n">
-        <v>40.4934</v>
+        <v>20.3264</v>
       </c>
       <c r="G41" t="n">
-        <v>625.2479308900002</v>
+        <v>447.3151492600001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>46710</v>
+        <v>47020</v>
       </c>
       <c r="C42" t="n">
-        <v>46700</v>
+        <v>47160</v>
       </c>
       <c r="D42" t="n">
-        <v>46710</v>
+        <v>47160</v>
       </c>
       <c r="E42" t="n">
-        <v>46700</v>
+        <v>47020</v>
       </c>
       <c r="F42" t="n">
-        <v>8.9217</v>
+        <v>29.714</v>
       </c>
       <c r="G42" t="n">
-        <v>625.2479308900002</v>
+        <v>477.0291492600001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>46710</v>
+        <v>46580</v>
       </c>
       <c r="C43" t="n">
-        <v>46710</v>
+        <v>46410</v>
       </c>
       <c r="D43" t="n">
-        <v>46710</v>
+        <v>46580</v>
       </c>
       <c r="E43" t="n">
-        <v>46710</v>
+        <v>46410</v>
       </c>
       <c r="F43" t="n">
-        <v>57.0529</v>
+        <v>8.6913</v>
       </c>
       <c r="G43" t="n">
-        <v>682.3008308900003</v>
+        <v>468.33784926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>46710</v>
+        <v>46830</v>
       </c>
       <c r="C44" t="n">
-        <v>47160</v>
+        <v>46830</v>
       </c>
       <c r="D44" t="n">
-        <v>47160</v>
+        <v>46830</v>
       </c>
       <c r="E44" t="n">
-        <v>46700</v>
+        <v>46830</v>
       </c>
       <c r="F44" t="n">
-        <v>57.9374</v>
+        <v>2.07</v>
       </c>
       <c r="G44" t="n">
-        <v>740.2382308900003</v>
+        <v>470.40784926</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>47090</v>
+        <v>46800</v>
       </c>
       <c r="C45" t="n">
-        <v>46940</v>
+        <v>47030</v>
       </c>
       <c r="D45" t="n">
-        <v>47090</v>
+        <v>47030</v>
       </c>
       <c r="E45" t="n">
-        <v>46940</v>
+        <v>46800</v>
       </c>
       <c r="F45" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>737.8582308900003</v>
+        <v>472.40784926</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>47130</v>
+      </c>
+      <c r="C46" t="n">
+        <v>47340</v>
+      </c>
+      <c r="D46" t="n">
+        <v>47340</v>
+      </c>
+      <c r="E46" t="n">
         <v>47080</v>
       </c>
-      <c r="C46" t="n">
-        <v>47030</v>
-      </c>
-      <c r="D46" t="n">
-        <v>47080</v>
-      </c>
-      <c r="E46" t="n">
-        <v>47030</v>
-      </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>37.6979</v>
       </c>
       <c r="G46" t="n">
-        <v>740.8582308900003</v>
+        <v>510.10574926</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,35 +2058,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>46980</v>
+        <v>47460</v>
       </c>
       <c r="C47" t="n">
-        <v>46980</v>
+        <v>48160</v>
       </c>
       <c r="D47" t="n">
-        <v>46980</v>
+        <v>48160</v>
       </c>
       <c r="E47" t="n">
-        <v>46980</v>
+        <v>47460</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>739.8582308900003</v>
+        <v>514.10574926</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>47030</v>
-      </c>
-      <c r="K47" t="n">
-        <v>47030</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
@@ -2098,40 +2094,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>46860</v>
+        <v>48150</v>
       </c>
       <c r="C48" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="D48" t="n">
-        <v>46860</v>
+        <v>49200</v>
       </c>
       <c r="E48" t="n">
-        <v>46780</v>
+        <v>48150</v>
       </c>
       <c r="F48" t="n">
-        <v>4.9505</v>
+        <v>150.99718163</v>
       </c>
       <c r="G48" t="n">
-        <v>734.9077308900003</v>
+        <v>665.10293089</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>46980</v>
-      </c>
-      <c r="K48" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2142,40 +2130,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="C49" t="n">
-        <v>46780</v>
+        <v>48040</v>
       </c>
       <c r="D49" t="n">
-        <v>46780</v>
+        <v>49200</v>
       </c>
       <c r="E49" t="n">
-        <v>46780</v>
+        <v>48040</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>28.9962</v>
       </c>
       <c r="G49" t="n">
-        <v>734.9077308900003</v>
+        <v>636.10673089</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>46780</v>
-      </c>
-      <c r="K49" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2186,40 +2166,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>46780</v>
+        <v>49190</v>
       </c>
       <c r="C50" t="n">
-        <v>46780</v>
+        <v>49420</v>
       </c>
       <c r="D50" t="n">
-        <v>46780</v>
+        <v>49420</v>
       </c>
       <c r="E50" t="n">
-        <v>46780</v>
+        <v>49190</v>
       </c>
       <c r="F50" t="n">
-        <v>18.9536</v>
+        <v>44.0949</v>
       </c>
       <c r="G50" t="n">
-        <v>734.9077308900003</v>
+        <v>680.20163089</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>46780</v>
-      </c>
-      <c r="K50" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2230,40 +2202,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>46780</v>
+        <v>49000</v>
       </c>
       <c r="C51" t="n">
-        <v>46700</v>
+        <v>49000</v>
       </c>
       <c r="D51" t="n">
-        <v>46780</v>
+        <v>49000</v>
       </c>
       <c r="E51" t="n">
-        <v>46700</v>
+        <v>49000</v>
       </c>
       <c r="F51" t="n">
-        <v>43.0282</v>
+        <v>1.5318</v>
       </c>
       <c r="G51" t="n">
-        <v>691.8795308900003</v>
+        <v>678.6698308900001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>46780</v>
-      </c>
-      <c r="K51" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2274,38 +2238,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>46610</v>
+        <v>49410</v>
       </c>
       <c r="C52" t="n">
-        <v>46610</v>
+        <v>49410</v>
       </c>
       <c r="D52" t="n">
-        <v>46610</v>
+        <v>49410</v>
       </c>
       <c r="E52" t="n">
-        <v>46610</v>
+        <v>48990</v>
       </c>
       <c r="F52" t="n">
-        <v>1.66</v>
+        <v>26.0798</v>
       </c>
       <c r="G52" t="n">
-        <v>690.2195308900003</v>
+        <v>704.74963089</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2316,38 +2274,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>46270</v>
+        <v>49410</v>
       </c>
       <c r="C53" t="n">
-        <v>46270</v>
+        <v>49420</v>
       </c>
       <c r="D53" t="n">
-        <v>46270</v>
+        <v>49420</v>
       </c>
       <c r="E53" t="n">
-        <v>46270</v>
+        <v>49410</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>8.4688</v>
       </c>
       <c r="G53" t="n">
-        <v>689.2195308900003</v>
+        <v>713.21843089</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2358,38 +2310,32 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>45620</v>
+        <v>49420</v>
       </c>
       <c r="C54" t="n">
-        <v>45590</v>
+        <v>49460</v>
       </c>
       <c r="D54" t="n">
-        <v>45620</v>
+        <v>49460</v>
       </c>
       <c r="E54" t="n">
-        <v>45590</v>
+        <v>49420</v>
       </c>
       <c r="F54" t="n">
-        <v>9.982799999999999</v>
+        <v>8.462400000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>679.2367308900003</v>
+        <v>721.68083089</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2400,38 +2346,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>46460</v>
+        <v>49000</v>
       </c>
       <c r="C55" t="n">
-        <v>46490</v>
+        <v>49000</v>
       </c>
       <c r="D55" t="n">
-        <v>46490</v>
+        <v>49000</v>
       </c>
       <c r="E55" t="n">
-        <v>46460</v>
+        <v>49000</v>
       </c>
       <c r="F55" t="n">
-        <v>7.3255</v>
+        <v>38.9756</v>
       </c>
       <c r="G55" t="n">
-        <v>686.5622308900004</v>
+        <v>682.7052308900001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2442,38 +2382,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>45610</v>
+        <v>48730</v>
       </c>
       <c r="C56" t="n">
-        <v>45600</v>
+        <v>49460</v>
       </c>
       <c r="D56" t="n">
-        <v>45610</v>
+        <v>49460</v>
       </c>
       <c r="E56" t="n">
-        <v>45600</v>
+        <v>48720</v>
       </c>
       <c r="F56" t="n">
-        <v>1.9775</v>
+        <v>14.1675</v>
       </c>
       <c r="G56" t="n">
-        <v>684.5847308900004</v>
+        <v>696.8727308900001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2484,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>45790</v>
+        <v>48700</v>
       </c>
       <c r="C57" t="n">
-        <v>45680</v>
+        <v>48500</v>
       </c>
       <c r="D57" t="n">
-        <v>45790</v>
+        <v>48990</v>
       </c>
       <c r="E57" t="n">
-        <v>45680</v>
+        <v>48500</v>
       </c>
       <c r="F57" t="n">
-        <v>16.6945</v>
+        <v>45.7989</v>
       </c>
       <c r="G57" t="n">
-        <v>701.2792308900003</v>
+        <v>651.0738308900001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2526,38 +2454,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>45680</v>
+        <v>48990</v>
       </c>
       <c r="C58" t="n">
-        <v>45680</v>
+        <v>49450</v>
       </c>
       <c r="D58" t="n">
-        <v>45680</v>
+        <v>49460</v>
       </c>
       <c r="E58" t="n">
-        <v>45680</v>
+        <v>48460</v>
       </c>
       <c r="F58" t="n">
-        <v>9.1349</v>
+        <v>39.9937</v>
       </c>
       <c r="G58" t="n">
-        <v>701.2792308900003</v>
+        <v>691.0675308900001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2568,38 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>45470</v>
+        <v>47860</v>
       </c>
       <c r="C59" t="n">
-        <v>46540</v>
+        <v>48170</v>
       </c>
       <c r="D59" t="n">
-        <v>46540</v>
+        <v>48180</v>
       </c>
       <c r="E59" t="n">
-        <v>45260</v>
+        <v>47860</v>
       </c>
       <c r="F59" t="n">
-        <v>83.2315</v>
+        <v>4.5367</v>
       </c>
       <c r="G59" t="n">
-        <v>784.5107308900003</v>
+        <v>686.5308308900001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2610,38 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>45750</v>
+        <v>48080</v>
       </c>
       <c r="C60" t="n">
-        <v>45750</v>
+        <v>48040</v>
       </c>
       <c r="D60" t="n">
-        <v>45750</v>
+        <v>48080</v>
       </c>
       <c r="E60" t="n">
-        <v>45750</v>
+        <v>48040</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>6.2857</v>
       </c>
       <c r="G60" t="n">
-        <v>781.5107308900003</v>
+        <v>680.24513089</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2652,38 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>45750</v>
+        <v>48110</v>
       </c>
       <c r="C61" t="n">
-        <v>45920</v>
+        <v>48120</v>
       </c>
       <c r="D61" t="n">
-        <v>45920</v>
+        <v>48120</v>
       </c>
       <c r="E61" t="n">
-        <v>45750</v>
+        <v>48110</v>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>10.6892</v>
       </c>
       <c r="G61" t="n">
-        <v>784.5107308900003</v>
+        <v>690.9343308900001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2694,38 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>45620</v>
+        <v>48060</v>
       </c>
       <c r="C62" t="n">
-        <v>45620</v>
+        <v>48050</v>
       </c>
       <c r="D62" t="n">
-        <v>45620</v>
+        <v>48060</v>
       </c>
       <c r="E62" t="n">
-        <v>45620</v>
+        <v>48050</v>
       </c>
       <c r="F62" t="n">
-        <v>9</v>
+        <v>11.7045</v>
       </c>
       <c r="G62" t="n">
-        <v>775.5107308900003</v>
+        <v>679.22983089</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2736,38 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>45620</v>
+        <v>47750</v>
       </c>
       <c r="C63" t="n">
-        <v>45850</v>
+        <v>47750</v>
       </c>
       <c r="D63" t="n">
-        <v>45850</v>
+        <v>47750</v>
       </c>
       <c r="E63" t="n">
-        <v>45620</v>
+        <v>47750</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0453</v>
+        <v>3.7832</v>
       </c>
       <c r="G63" t="n">
-        <v>776.5560308900003</v>
+        <v>675.4466308900001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>45350</v>
+        <v>47850</v>
       </c>
       <c r="C64" t="n">
-        <v>45350</v>
+        <v>47870</v>
       </c>
       <c r="D64" t="n">
-        <v>45350</v>
+        <v>47870</v>
       </c>
       <c r="E64" t="n">
-        <v>45350</v>
+        <v>47850</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9751</v>
+        <v>24.19</v>
       </c>
       <c r="G64" t="n">
-        <v>775.5809308900003</v>
+        <v>699.6366308900001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2802,14 +2694,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2820,38 +2706,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>45500</v>
+        <v>47630</v>
       </c>
       <c r="C65" t="n">
-        <v>45600</v>
+        <v>47530</v>
       </c>
       <c r="D65" t="n">
-        <v>45850</v>
+        <v>47630</v>
       </c>
       <c r="E65" t="n">
-        <v>45500</v>
+        <v>47530</v>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>20.437</v>
       </c>
       <c r="G65" t="n">
-        <v>779.5809308900003</v>
+        <v>679.1996308900001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2862,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>45600</v>
+        <v>47530</v>
       </c>
       <c r="C66" t="n">
-        <v>45700</v>
+        <v>47520</v>
       </c>
       <c r="D66" t="n">
-        <v>45700</v>
+        <v>47530</v>
       </c>
       <c r="E66" t="n">
-        <v>45600</v>
+        <v>47520</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>8.4376</v>
       </c>
       <c r="G66" t="n">
-        <v>782.5809308900003</v>
+        <v>670.7620308900001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>45690</v>
+        <v>47550</v>
       </c>
       <c r="C67" t="n">
-        <v>45690</v>
+        <v>47550</v>
       </c>
       <c r="D67" t="n">
-        <v>45690</v>
+        <v>47550</v>
       </c>
       <c r="E67" t="n">
-        <v>45690</v>
+        <v>47550</v>
       </c>
       <c r="F67" t="n">
-        <v>2</v>
+        <v>1.7566</v>
       </c>
       <c r="G67" t="n">
-        <v>780.5809308900003</v>
+        <v>672.5186308900002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2928,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2946,38 +2814,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>45690</v>
+        <v>47530</v>
       </c>
       <c r="C68" t="n">
-        <v>45700</v>
+        <v>47520</v>
       </c>
       <c r="D68" t="n">
-        <v>45700</v>
+        <v>47530</v>
       </c>
       <c r="E68" t="n">
-        <v>45690</v>
+        <v>47520</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>6.3639</v>
       </c>
       <c r="G68" t="n">
-        <v>783.5809308900003</v>
+        <v>666.1547308900002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2988,38 +2850,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>45700</v>
+        <v>47110</v>
       </c>
       <c r="C69" t="n">
-        <v>45750</v>
+        <v>47110</v>
       </c>
       <c r="D69" t="n">
-        <v>45750</v>
+        <v>47110</v>
       </c>
       <c r="E69" t="n">
-        <v>45700</v>
+        <v>47110</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.4134</v>
       </c>
       <c r="G69" t="n">
-        <v>784.5809308900003</v>
+        <v>665.7413308900002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3030,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>45750</v>
+        <v>47330</v>
       </c>
       <c r="C70" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="D70" t="n">
-        <v>45750</v>
+        <v>47330</v>
       </c>
       <c r="E70" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>40.4934</v>
       </c>
       <c r="G70" t="n">
-        <v>784.5809308900003</v>
+        <v>625.2479308900002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3054,14 +2910,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3072,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>45750</v>
+        <v>46710</v>
       </c>
       <c r="C71" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="D71" t="n">
-        <v>45750</v>
+        <v>46710</v>
       </c>
       <c r="E71" t="n">
-        <v>45750</v>
+        <v>46700</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>8.9217</v>
       </c>
       <c r="G71" t="n">
-        <v>784.5809308900003</v>
+        <v>625.2479308900002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3096,14 +2946,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3114,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>45750</v>
+        <v>46710</v>
       </c>
       <c r="C72" t="n">
-        <v>46100</v>
+        <v>46710</v>
       </c>
       <c r="D72" t="n">
-        <v>46150</v>
+        <v>46710</v>
       </c>
       <c r="E72" t="n">
-        <v>45750</v>
+        <v>46710</v>
       </c>
       <c r="F72" t="n">
-        <v>1.22</v>
+        <v>57.0529</v>
       </c>
       <c r="G72" t="n">
-        <v>785.8009308900004</v>
+        <v>682.3008308900003</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3138,14 +2982,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3156,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>46190</v>
+        <v>46710</v>
       </c>
       <c r="C73" t="n">
-        <v>46190</v>
+        <v>47160</v>
       </c>
       <c r="D73" t="n">
-        <v>46190</v>
+        <v>47160</v>
       </c>
       <c r="E73" t="n">
-        <v>46190</v>
+        <v>46700</v>
       </c>
       <c r="F73" t="n">
-        <v>17.2675</v>
+        <v>57.9374</v>
       </c>
       <c r="G73" t="n">
-        <v>803.0684308900004</v>
+        <v>740.2382308900003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3180,14 +3018,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3198,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>46210</v>
+        <v>47090</v>
       </c>
       <c r="C74" t="n">
-        <v>46210</v>
+        <v>46940</v>
       </c>
       <c r="D74" t="n">
-        <v>46210</v>
+        <v>47090</v>
       </c>
       <c r="E74" t="n">
-        <v>46210</v>
+        <v>46940</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4129</v>
+        <v>2.38</v>
       </c>
       <c r="G74" t="n">
-        <v>803.4813308900004</v>
+        <v>737.8582308900003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3222,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3240,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46830</v>
+        <v>47080</v>
       </c>
       <c r="C75" t="n">
-        <v>46960</v>
+        <v>47030</v>
       </c>
       <c r="D75" t="n">
-        <v>46960</v>
+        <v>47080</v>
       </c>
       <c r="E75" t="n">
-        <v>46830</v>
+        <v>47030</v>
       </c>
       <c r="F75" t="n">
-        <v>17.3169</v>
+        <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>820.7982308900005</v>
+        <v>740.8582308900003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3264,14 +3090,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3282,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>46250</v>
+        <v>46980</v>
       </c>
       <c r="C76" t="n">
-        <v>46190</v>
+        <v>46980</v>
       </c>
       <c r="D76" t="n">
-        <v>46250</v>
+        <v>46980</v>
       </c>
       <c r="E76" t="n">
-        <v>46190</v>
+        <v>46980</v>
       </c>
       <c r="F76" t="n">
-        <v>6.4463</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>814.3519308900005</v>
+        <v>739.8582308900003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3306,14 +3126,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3324,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>46200</v>
+        <v>46860</v>
       </c>
       <c r="C77" t="n">
-        <v>46200</v>
+        <v>46780</v>
       </c>
       <c r="D77" t="n">
-        <v>46200</v>
+        <v>46860</v>
       </c>
       <c r="E77" t="n">
-        <v>46200</v>
+        <v>46780</v>
       </c>
       <c r="F77" t="n">
-        <v>1.2969</v>
+        <v>4.9505</v>
       </c>
       <c r="G77" t="n">
-        <v>815.6488308900006</v>
+        <v>734.9077308900003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3348,14 +3162,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3366,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="C78" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="D78" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="E78" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="F78" t="n">
-        <v>5.1309</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>810.5179308900006</v>
+        <v>734.9077308900003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3390,14 +3198,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="C79" t="n">
-        <v>46070</v>
+        <v>46780</v>
       </c>
       <c r="D79" t="n">
-        <v>46190</v>
+        <v>46780</v>
       </c>
       <c r="E79" t="n">
-        <v>46070</v>
+        <v>46780</v>
       </c>
       <c r="F79" t="n">
-        <v>6.1915</v>
+        <v>18.9536</v>
       </c>
       <c r="G79" t="n">
-        <v>804.3264308900006</v>
+        <v>734.9077308900003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3432,14 +3234,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3450,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>46000</v>
+        <v>46780</v>
       </c>
       <c r="C80" t="n">
-        <v>46000</v>
+        <v>46700</v>
       </c>
       <c r="D80" t="n">
-        <v>46000</v>
+        <v>46780</v>
       </c>
       <c r="E80" t="n">
-        <v>46000</v>
+        <v>46700</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2</v>
+        <v>43.0282</v>
       </c>
       <c r="G80" t="n">
-        <v>804.1264308900005</v>
+        <v>691.8795308900003</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3474,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3492,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>46110</v>
+        <v>46610</v>
       </c>
       <c r="C81" t="n">
-        <v>46110</v>
+        <v>46610</v>
       </c>
       <c r="D81" t="n">
-        <v>46110</v>
+        <v>46610</v>
       </c>
       <c r="E81" t="n">
-        <v>46110</v>
+        <v>46610</v>
       </c>
       <c r="F81" t="n">
-        <v>0.013</v>
+        <v>1.66</v>
       </c>
       <c r="G81" t="n">
-        <v>804.1394308900005</v>
+        <v>690.2195308900003</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3516,14 +3306,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3534,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>46520</v>
+        <v>46270</v>
       </c>
       <c r="C82" t="n">
-        <v>46300</v>
+        <v>46270</v>
       </c>
       <c r="D82" t="n">
-        <v>46520</v>
+        <v>46270</v>
       </c>
       <c r="E82" t="n">
-        <v>46300</v>
+        <v>46270</v>
       </c>
       <c r="F82" t="n">
-        <v>16.9173</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>821.0567308900005</v>
+        <v>689.2195308900003</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3558,14 +3342,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3576,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>46300</v>
+        <v>45620</v>
       </c>
       <c r="C83" t="n">
-        <v>46300</v>
+        <v>45590</v>
       </c>
       <c r="D83" t="n">
-        <v>46300</v>
+        <v>45620</v>
       </c>
       <c r="E83" t="n">
-        <v>46300</v>
+        <v>45590</v>
       </c>
       <c r="F83" t="n">
-        <v>12.6635</v>
+        <v>9.982799999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>821.0567308900005</v>
+        <v>679.2367308900003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3600,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3618,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>46190</v>
+        <v>46460</v>
       </c>
       <c r="C84" t="n">
-        <v>45800</v>
+        <v>46490</v>
       </c>
       <c r="D84" t="n">
-        <v>46190</v>
+        <v>46490</v>
       </c>
       <c r="E84" t="n">
-        <v>45800</v>
+        <v>46460</v>
       </c>
       <c r="F84" t="n">
-        <v>12.6636</v>
+        <v>7.3255</v>
       </c>
       <c r="G84" t="n">
-        <v>808.3931308900005</v>
+        <v>686.5622308900004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3642,14 +3414,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3660,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>45800</v>
+        <v>45610</v>
       </c>
       <c r="C85" t="n">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="D85" t="n">
-        <v>45800</v>
+        <v>45610</v>
       </c>
       <c r="E85" t="n">
-        <v>45800</v>
+        <v>45600</v>
       </c>
       <c r="F85" t="n">
-        <v>10.1396</v>
+        <v>1.9775</v>
       </c>
       <c r="G85" t="n">
-        <v>808.3931308900005</v>
+        <v>684.5847308900004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3684,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3702,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>45800</v>
+        <v>45790</v>
       </c>
       <c r="C86" t="n">
-        <v>45800</v>
+        <v>45680</v>
       </c>
       <c r="D86" t="n">
-        <v>45800</v>
+        <v>45790</v>
       </c>
       <c r="E86" t="n">
-        <v>45800</v>
+        <v>45680</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>16.6945</v>
       </c>
       <c r="G86" t="n">
-        <v>808.3931308900005</v>
+        <v>701.2792308900003</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3726,14 +3486,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3744,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="C87" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="D87" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="E87" t="n">
-        <v>45360</v>
+        <v>45680</v>
       </c>
       <c r="F87" t="n">
-        <v>4.01</v>
+        <v>9.1349</v>
       </c>
       <c r="G87" t="n">
-        <v>804.3831308900005</v>
+        <v>701.2792308900003</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3768,14 +3522,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3786,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>45360</v>
+        <v>45470</v>
       </c>
       <c r="C88" t="n">
-        <v>45360</v>
+        <v>46540</v>
       </c>
       <c r="D88" t="n">
-        <v>45360</v>
+        <v>46540</v>
       </c>
       <c r="E88" t="n">
-        <v>45360</v>
+        <v>45260</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>83.2315</v>
       </c>
       <c r="G88" t="n">
-        <v>804.3831308900005</v>
+        <v>784.5107308900003</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3810,14 +3558,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>45360</v>
+        <v>45750</v>
       </c>
       <c r="C89" t="n">
-        <v>45360</v>
+        <v>45750</v>
       </c>
       <c r="D89" t="n">
-        <v>45360</v>
+        <v>45750</v>
       </c>
       <c r="E89" t="n">
-        <v>45360</v>
+        <v>45750</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>804.3831308900005</v>
+        <v>781.5107308900003</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3852,14 +3594,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3870,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>45350</v>
+        <v>45750</v>
       </c>
       <c r="C90" t="n">
-        <v>45100</v>
+        <v>45920</v>
       </c>
       <c r="D90" t="n">
-        <v>45350</v>
+        <v>45920</v>
       </c>
       <c r="E90" t="n">
-        <v>45100</v>
+        <v>45750</v>
       </c>
       <c r="F90" t="n">
-        <v>9.0928</v>
+        <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>795.2903308900005</v>
+        <v>784.5107308900003</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3894,14 +3630,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3912,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>45350</v>
+        <v>45620</v>
       </c>
       <c r="C91" t="n">
-        <v>45100</v>
+        <v>45620</v>
       </c>
       <c r="D91" t="n">
-        <v>45350</v>
+        <v>45620</v>
       </c>
       <c r="E91" t="n">
-        <v>45100</v>
+        <v>45620</v>
       </c>
       <c r="F91" t="n">
-        <v>5.4286</v>
+        <v>9</v>
       </c>
       <c r="G91" t="n">
-        <v>795.2903308900005</v>
+        <v>775.5107308900003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3936,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3954,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>45110</v>
+        <v>45620</v>
       </c>
       <c r="C92" t="n">
-        <v>45110</v>
+        <v>45850</v>
       </c>
       <c r="D92" t="n">
-        <v>45110</v>
+        <v>45850</v>
       </c>
       <c r="E92" t="n">
-        <v>45110</v>
+        <v>45620</v>
       </c>
       <c r="F92" t="n">
-        <v>24.2181</v>
+        <v>1.0453</v>
       </c>
       <c r="G92" t="n">
-        <v>819.5084308900006</v>
+        <v>776.5560308900003</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3978,14 +3702,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3996,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>45360</v>
+        <v>45350</v>
       </c>
       <c r="C93" t="n">
-        <v>46360</v>
+        <v>45350</v>
       </c>
       <c r="D93" t="n">
-        <v>46380</v>
+        <v>45350</v>
       </c>
       <c r="E93" t="n">
-        <v>45360</v>
+        <v>45350</v>
       </c>
       <c r="F93" t="n">
-        <v>71.9799</v>
+        <v>0.9751</v>
       </c>
       <c r="G93" t="n">
-        <v>891.4883308900006</v>
+        <v>775.5809308900003</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4020,14 +3738,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4038,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>46370</v>
+        <v>45500</v>
       </c>
       <c r="C94" t="n">
-        <v>46980</v>
+        <v>45600</v>
       </c>
       <c r="D94" t="n">
-        <v>46980</v>
+        <v>45850</v>
       </c>
       <c r="E94" t="n">
-        <v>46370</v>
+        <v>45500</v>
       </c>
       <c r="F94" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>904.4883308900006</v>
+        <v>779.5809308900003</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4062,14 +3774,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4080,72 +3786,64 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>46990</v>
+        <v>45600</v>
       </c>
       <c r="C95" t="n">
-        <v>48080</v>
+        <v>45700</v>
       </c>
       <c r="D95" t="n">
-        <v>48080</v>
+        <v>45700</v>
       </c>
       <c r="E95" t="n">
-        <v>46990</v>
+        <v>45600</v>
       </c>
       <c r="F95" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>923.4883308900006</v>
+        <v>782.5809308900003</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>47030</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>1.017326174782054</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1.06571859513036</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>48080</v>
+        <v>45690</v>
       </c>
       <c r="C96" t="n">
-        <v>48080</v>
+        <v>45690</v>
       </c>
       <c r="D96" t="n">
-        <v>48080</v>
+        <v>45690</v>
       </c>
       <c r="E96" t="n">
-        <v>48080</v>
+        <v>45690</v>
       </c>
       <c r="F96" t="n">
-        <v>4.2433</v>
+        <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>923.4883308900006</v>
+        <v>780.5809308900003</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4160,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>47790</v>
+        <v>45690</v>
       </c>
       <c r="C97" t="n">
-        <v>47850</v>
+        <v>45700</v>
       </c>
       <c r="D97" t="n">
-        <v>49000</v>
+        <v>45700</v>
       </c>
       <c r="E97" t="n">
-        <v>47550</v>
+        <v>45690</v>
       </c>
       <c r="F97" t="n">
-        <v>39.23235073</v>
+        <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>884.2559801600006</v>
+        <v>783.5809308900003</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4196,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>47630</v>
+        <v>45700</v>
       </c>
       <c r="C98" t="n">
-        <v>48040</v>
+        <v>45750</v>
       </c>
       <c r="D98" t="n">
-        <v>48040</v>
+        <v>45750</v>
       </c>
       <c r="E98" t="n">
-        <v>47310</v>
+        <v>45700</v>
       </c>
       <c r="F98" t="n">
-        <v>46.1787</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>930.4346801600007</v>
+        <v>784.5809308900003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4232,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>47350</v>
+        <v>45750</v>
       </c>
       <c r="C99" t="n">
-        <v>47900</v>
+        <v>45750</v>
       </c>
       <c r="D99" t="n">
-        <v>47900</v>
+        <v>45750</v>
       </c>
       <c r="E99" t="n">
-        <v>47310</v>
+        <v>45750</v>
       </c>
       <c r="F99" t="n">
-        <v>12.4151</v>
+        <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>918.0195801600006</v>
+        <v>784.5809308900003</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4268,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>46670</v>
+        <v>45750</v>
       </c>
       <c r="C100" t="n">
-        <v>46660</v>
+        <v>45750</v>
       </c>
       <c r="D100" t="n">
-        <v>46670</v>
+        <v>45750</v>
       </c>
       <c r="E100" t="n">
-        <v>46660</v>
+        <v>45750</v>
       </c>
       <c r="F100" t="n">
-        <v>17.9351</v>
+        <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>900.0844801600006</v>
+        <v>784.5809308900003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4304,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>47520</v>
+        <v>45750</v>
       </c>
       <c r="C101" t="n">
-        <v>47390</v>
+        <v>46100</v>
       </c>
       <c r="D101" t="n">
-        <v>47520</v>
+        <v>46150</v>
       </c>
       <c r="E101" t="n">
-        <v>46660</v>
+        <v>45750</v>
       </c>
       <c r="F101" t="n">
-        <v>1.69</v>
+        <v>1.22</v>
       </c>
       <c r="G101" t="n">
-        <v>901.7744801600006</v>
+        <v>785.8009308900004</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4340,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>47510</v>
+        <v>46190</v>
       </c>
       <c r="C102" t="n">
-        <v>47430</v>
+        <v>46190</v>
       </c>
       <c r="D102" t="n">
-        <v>47510</v>
+        <v>46190</v>
       </c>
       <c r="E102" t="n">
-        <v>47430</v>
+        <v>46190</v>
       </c>
       <c r="F102" t="n">
-        <v>11.8485</v>
+        <v>17.2675</v>
       </c>
       <c r="G102" t="n">
-        <v>913.6229801600006</v>
+        <v>803.0684308900004</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4376,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>46710</v>
+        <v>46210</v>
       </c>
       <c r="C103" t="n">
-        <v>46650</v>
+        <v>46210</v>
       </c>
       <c r="D103" t="n">
-        <v>46710</v>
+        <v>46210</v>
       </c>
       <c r="E103" t="n">
-        <v>46650</v>
+        <v>46210</v>
       </c>
       <c r="F103" t="n">
-        <v>12.4979</v>
+        <v>0.4129</v>
       </c>
       <c r="G103" t="n">
-        <v>901.1250801600006</v>
+        <v>803.4813308900004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4412,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>46660</v>
+        <v>46830</v>
       </c>
       <c r="C104" t="n">
-        <v>47270</v>
+        <v>46960</v>
       </c>
       <c r="D104" t="n">
-        <v>47270</v>
+        <v>46960</v>
       </c>
       <c r="E104" t="n">
-        <v>46660</v>
+        <v>46830</v>
       </c>
       <c r="F104" t="n">
-        <v>5.94</v>
+        <v>17.3169</v>
       </c>
       <c r="G104" t="n">
-        <v>907.0650801600007</v>
+        <v>820.7982308900005</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4448,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>46590</v>
+        <v>46250</v>
       </c>
       <c r="C105" t="n">
-        <v>46590</v>
+        <v>46190</v>
       </c>
       <c r="D105" t="n">
-        <v>46590</v>
+        <v>46250</v>
       </c>
       <c r="E105" t="n">
-        <v>46590</v>
+        <v>46190</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7316</v>
+        <v>6.4463</v>
       </c>
       <c r="G105" t="n">
-        <v>906.3334801600007</v>
+        <v>814.3519308900005</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4484,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>47110</v>
+        <v>46200</v>
       </c>
       <c r="C106" t="n">
-        <v>46990</v>
+        <v>46200</v>
       </c>
       <c r="D106" t="n">
-        <v>47110</v>
+        <v>46200</v>
       </c>
       <c r="E106" t="n">
-        <v>46990</v>
+        <v>46200</v>
       </c>
       <c r="F106" t="n">
-        <v>0.23</v>
+        <v>1.2969</v>
       </c>
       <c r="G106" t="n">
-        <v>906.5634801600007</v>
+        <v>815.6488308900006</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4520,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>46030</v>
+        <v>46190</v>
       </c>
       <c r="C107" t="n">
-        <v>46020</v>
+        <v>46190</v>
       </c>
       <c r="D107" t="n">
-        <v>46030</v>
+        <v>46190</v>
       </c>
       <c r="E107" t="n">
-        <v>46020</v>
+        <v>46190</v>
       </c>
       <c r="F107" t="n">
-        <v>58.9605</v>
+        <v>5.1309</v>
       </c>
       <c r="G107" t="n">
-        <v>847.6029801600007</v>
+        <v>810.5179308900006</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4556,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>45150</v>
+        <v>46190</v>
       </c>
       <c r="C108" t="n">
-        <v>45150</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="n">
-        <v>45150</v>
+        <v>46190</v>
       </c>
       <c r="E108" t="n">
-        <v>45140</v>
+        <v>46070</v>
       </c>
       <c r="F108" t="n">
-        <v>9.679500000000001</v>
+        <v>6.1915</v>
       </c>
       <c r="G108" t="n">
-        <v>837.9234801600007</v>
+        <v>804.3264308900006</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4592,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="C109" t="n">
-        <v>45140</v>
+        <v>46000</v>
       </c>
       <c r="D109" t="n">
-        <v>45900</v>
+        <v>46000</v>
       </c>
       <c r="E109" t="n">
-        <v>45140</v>
+        <v>46000</v>
       </c>
       <c r="F109" t="n">
-        <v>2.023</v>
+        <v>0.2</v>
       </c>
       <c r="G109" t="n">
-        <v>835.9004801600007</v>
+        <v>804.1264308900005</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4623,6 +4321,1134 @@
       </c>
       <c r="N109" t="inlineStr"/>
     </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>46110</v>
+      </c>
+      <c r="C110" t="n">
+        <v>46110</v>
+      </c>
+      <c r="D110" t="n">
+        <v>46110</v>
+      </c>
+      <c r="E110" t="n">
+        <v>46110</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="G110" t="n">
+        <v>804.1394308900005</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>46520</v>
+      </c>
+      <c r="C111" t="n">
+        <v>46300</v>
+      </c>
+      <c r="D111" t="n">
+        <v>46520</v>
+      </c>
+      <c r="E111" t="n">
+        <v>46300</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16.9173</v>
+      </c>
+      <c r="G111" t="n">
+        <v>821.0567308900005</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>46300</v>
+      </c>
+      <c r="C112" t="n">
+        <v>46300</v>
+      </c>
+      <c r="D112" t="n">
+        <v>46300</v>
+      </c>
+      <c r="E112" t="n">
+        <v>46300</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12.6635</v>
+      </c>
+      <c r="G112" t="n">
+        <v>821.0567308900005</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>46190</v>
+      </c>
+      <c r="C113" t="n">
+        <v>45800</v>
+      </c>
+      <c r="D113" t="n">
+        <v>46190</v>
+      </c>
+      <c r="E113" t="n">
+        <v>45800</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12.6636</v>
+      </c>
+      <c r="G113" t="n">
+        <v>808.3931308900005</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>45800</v>
+      </c>
+      <c r="C114" t="n">
+        <v>45800</v>
+      </c>
+      <c r="D114" t="n">
+        <v>45800</v>
+      </c>
+      <c r="E114" t="n">
+        <v>45800</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10.1396</v>
+      </c>
+      <c r="G114" t="n">
+        <v>808.3931308900005</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>45800</v>
+      </c>
+      <c r="C115" t="n">
+        <v>45800</v>
+      </c>
+      <c r="D115" t="n">
+        <v>45800</v>
+      </c>
+      <c r="E115" t="n">
+        <v>45800</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>808.3931308900005</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C116" t="n">
+        <v>45360</v>
+      </c>
+      <c r="D116" t="n">
+        <v>45360</v>
+      </c>
+      <c r="E116" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="G116" t="n">
+        <v>804.3831308900005</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C117" t="n">
+        <v>45360</v>
+      </c>
+      <c r="D117" t="n">
+        <v>45360</v>
+      </c>
+      <c r="E117" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>804.3831308900005</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C118" t="n">
+        <v>45360</v>
+      </c>
+      <c r="D118" t="n">
+        <v>45360</v>
+      </c>
+      <c r="E118" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F118" t="n">
+        <v>10</v>
+      </c>
+      <c r="G118" t="n">
+        <v>804.3831308900005</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C119" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D119" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E119" t="n">
+        <v>45100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9.0928</v>
+      </c>
+      <c r="G119" t="n">
+        <v>795.2903308900005</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C120" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45350</v>
+      </c>
+      <c r="E120" t="n">
+        <v>45100</v>
+      </c>
+      <c r="F120" t="n">
+        <v>5.4286</v>
+      </c>
+      <c r="G120" t="n">
+        <v>795.2903308900005</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>45100</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C121" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D121" t="n">
+        <v>45110</v>
+      </c>
+      <c r="E121" t="n">
+        <v>45110</v>
+      </c>
+      <c r="F121" t="n">
+        <v>24.2181</v>
+      </c>
+      <c r="G121" t="n">
+        <v>819.5084308900006</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>45100</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C122" t="n">
+        <v>46360</v>
+      </c>
+      <c r="D122" t="n">
+        <v>46380</v>
+      </c>
+      <c r="E122" t="n">
+        <v>45360</v>
+      </c>
+      <c r="F122" t="n">
+        <v>71.9799</v>
+      </c>
+      <c r="G122" t="n">
+        <v>891.4883308900006</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>45110</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>46370</v>
+      </c>
+      <c r="C123" t="n">
+        <v>46980</v>
+      </c>
+      <c r="D123" t="n">
+        <v>46980</v>
+      </c>
+      <c r="E123" t="n">
+        <v>46370</v>
+      </c>
+      <c r="F123" t="n">
+        <v>13</v>
+      </c>
+      <c r="G123" t="n">
+        <v>904.4883308900006</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>46360</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>46990</v>
+      </c>
+      <c r="C124" t="n">
+        <v>48080</v>
+      </c>
+      <c r="D124" t="n">
+        <v>48080</v>
+      </c>
+      <c r="E124" t="n">
+        <v>46990</v>
+      </c>
+      <c r="F124" t="n">
+        <v>19</v>
+      </c>
+      <c r="G124" t="n">
+        <v>923.4883308900006</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>48080</v>
+      </c>
+      <c r="C125" t="n">
+        <v>48080</v>
+      </c>
+      <c r="D125" t="n">
+        <v>48080</v>
+      </c>
+      <c r="E125" t="n">
+        <v>48080</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4.2433</v>
+      </c>
+      <c r="G125" t="n">
+        <v>923.4883308900006</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>47790</v>
+      </c>
+      <c r="C126" t="n">
+        <v>47850</v>
+      </c>
+      <c r="D126" t="n">
+        <v>49000</v>
+      </c>
+      <c r="E126" t="n">
+        <v>47550</v>
+      </c>
+      <c r="F126" t="n">
+        <v>39.23235073</v>
+      </c>
+      <c r="G126" t="n">
+        <v>884.2559801600006</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>47630</v>
+      </c>
+      <c r="C127" t="n">
+        <v>48040</v>
+      </c>
+      <c r="D127" t="n">
+        <v>48040</v>
+      </c>
+      <c r="E127" t="n">
+        <v>47310</v>
+      </c>
+      <c r="F127" t="n">
+        <v>46.1787</v>
+      </c>
+      <c r="G127" t="n">
+        <v>930.4346801600007</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>47350</v>
+      </c>
+      <c r="C128" t="n">
+        <v>47900</v>
+      </c>
+      <c r="D128" t="n">
+        <v>47900</v>
+      </c>
+      <c r="E128" t="n">
+        <v>47310</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12.4151</v>
+      </c>
+      <c r="G128" t="n">
+        <v>918.0195801600006</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>46670</v>
+      </c>
+      <c r="C129" t="n">
+        <v>46660</v>
+      </c>
+      <c r="D129" t="n">
+        <v>46670</v>
+      </c>
+      <c r="E129" t="n">
+        <v>46660</v>
+      </c>
+      <c r="F129" t="n">
+        <v>17.9351</v>
+      </c>
+      <c r="G129" t="n">
+        <v>900.0844801600006</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>47520</v>
+      </c>
+      <c r="C130" t="n">
+        <v>47390</v>
+      </c>
+      <c r="D130" t="n">
+        <v>47520</v>
+      </c>
+      <c r="E130" t="n">
+        <v>46660</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G130" t="n">
+        <v>901.7744801600006</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>47510</v>
+      </c>
+      <c r="C131" t="n">
+        <v>47430</v>
+      </c>
+      <c r="D131" t="n">
+        <v>47510</v>
+      </c>
+      <c r="E131" t="n">
+        <v>47430</v>
+      </c>
+      <c r="F131" t="n">
+        <v>11.8485</v>
+      </c>
+      <c r="G131" t="n">
+        <v>913.6229801600006</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>46710</v>
+      </c>
+      <c r="C132" t="n">
+        <v>46650</v>
+      </c>
+      <c r="D132" t="n">
+        <v>46710</v>
+      </c>
+      <c r="E132" t="n">
+        <v>46650</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.4979</v>
+      </c>
+      <c r="G132" t="n">
+        <v>901.1250801600006</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>46660</v>
+      </c>
+      <c r="C133" t="n">
+        <v>47270</v>
+      </c>
+      <c r="D133" t="n">
+        <v>47270</v>
+      </c>
+      <c r="E133" t="n">
+        <v>46660</v>
+      </c>
+      <c r="F133" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="G133" t="n">
+        <v>907.0650801600007</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>46590</v>
+      </c>
+      <c r="C134" t="n">
+        <v>46590</v>
+      </c>
+      <c r="D134" t="n">
+        <v>46590</v>
+      </c>
+      <c r="E134" t="n">
+        <v>46590</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.7316</v>
+      </c>
+      <c r="G134" t="n">
+        <v>906.3334801600007</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>47110</v>
+      </c>
+      <c r="C135" t="n">
+        <v>46990</v>
+      </c>
+      <c r="D135" t="n">
+        <v>47110</v>
+      </c>
+      <c r="E135" t="n">
+        <v>46990</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G135" t="n">
+        <v>906.5634801600007</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C136" t="n">
+        <v>46020</v>
+      </c>
+      <c r="D136" t="n">
+        <v>46030</v>
+      </c>
+      <c r="E136" t="n">
+        <v>46020</v>
+      </c>
+      <c r="F136" t="n">
+        <v>58.9605</v>
+      </c>
+      <c r="G136" t="n">
+        <v>847.6029801600007</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>45150</v>
+      </c>
+      <c r="C137" t="n">
+        <v>45150</v>
+      </c>
+      <c r="D137" t="n">
+        <v>45150</v>
+      </c>
+      <c r="E137" t="n">
+        <v>45140</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9.679500000000001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>837.9234801600007</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>45900</v>
+      </c>
+      <c r="C138" t="n">
+        <v>45140</v>
+      </c>
+      <c r="D138" t="n">
+        <v>45900</v>
+      </c>
+      <c r="E138" t="n">
+        <v>45140</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="G138" t="n">
+        <v>835.9004801600007</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2068,15 @@
         <v>678.6698308900001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>704.74963089</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2134,15 @@
         <v>713.21843089</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2167,15 @@
         <v>721.68083089</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>682.7052308900001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>696.8727308900001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>651.0738308900001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>686.5308308900001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>680.24513089</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>690.9343308900001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>682.3008308900003</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>691.8795308900003</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>690.2195308900003</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>689.2195308900003</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3157,15 @@
         <v>686.5622308900004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4213,19 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>45800</v>
+      </c>
+      <c r="J116" t="n">
+        <v>45800</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4252,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4289,23 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>45360</v>
+      </c>
+      <c r="J118" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4330,23 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>45360</v>
+      </c>
+      <c r="J119" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,24 +4371,23 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>45100</v>
       </c>
       <c r="J120" t="n">
-        <v>45100</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+        <v>45800</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4746,24 +4412,23 @@
         <v>819.5084308900006</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>45100</v>
       </c>
       <c r="J121" t="n">
-        <v>45100</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+        <v>45800</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4788,24 +4453,23 @@
         <v>891.4883308900006</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>45110</v>
       </c>
       <c r="J122" t="n">
-        <v>45110</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+        <v>45800</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,24 +4494,23 @@
         <v>904.4883308900006</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>46360</v>
       </c>
       <c r="J123" t="n">
-        <v>46360</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+        <v>45800</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4872,22 +4535,23 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+        <v>46980</v>
+      </c>
+      <c r="J124" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4912,22 +4576,23 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+        <v>48080</v>
+      </c>
+      <c r="J125" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4952,22 +4617,21 @@
         <v>884.2559801600006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4992,22 +4656,21 @@
         <v>930.4346801600007</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5032,22 +4695,21 @@
         <v>918.0195801600006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5072,22 +4734,21 @@
         <v>900.0844801600006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5114,20 +4775,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5154,20 +4814,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5194,20 +4853,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5234,20 +4892,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5274,20 +4931,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5314,20 +4970,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5354,20 +5009,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5394,20 +5048,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5434,22 +5087,21 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>45800</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>617.77434926</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>511.9245492599999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>512.0342492599999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>514.1696492599999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>506.4540492599999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>500.4145492599999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>501.66154926</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>501.7225492599999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>498.39004926</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>485.0893492599999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>485.5875492599999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>678.6698308900001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>704.74963089</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>713.21843089</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>721.68083089</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>682.7052308900001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>696.8727308900001</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>651.0738308900001</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>686.5308308900001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>680.24513089</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>690.9343308900001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>682.3008308900003</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>691.8795308900003</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>690.2195308900003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>689.2195308900003</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>686.5622308900004</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -4213,14 +4213,10 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>45800</v>
-      </c>
-      <c r="J116" t="n">
-        <v>45800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4253,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>45800</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4289,19 +4279,11 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>45360</v>
-      </c>
-      <c r="J118" t="n">
-        <v>45800</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +4312,12 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>45360</v>
       </c>
-      <c r="J119" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4371,14 +4351,12 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>45100</v>
       </c>
-      <c r="J120" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4412,14 +4390,12 @@
         <v>819.5084308900006</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>45100</v>
       </c>
-      <c r="J121" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,14 +4429,12 @@
         <v>891.4883308900006</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>45110</v>
       </c>
-      <c r="J122" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4494,14 +4468,12 @@
         <v>904.4883308900006</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>46360</v>
       </c>
-      <c r="J123" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4535,14 +4507,12 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>46980</v>
       </c>
-      <c r="J124" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,14 +4546,10 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>48080</v>
-      </c>
-      <c r="J125" t="n">
-        <v>45800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4617,12 +4583,10 @@
         <v>884.2559801600006</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,12 +4620,10 @@
         <v>930.4346801600007</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,12 +4657,10 @@
         <v>918.0195801600006</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,12 +4694,10 @@
         <v>900.0844801600006</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4776,9 +4734,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,9 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,9 +4808,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4893,9 +4845,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,9 +4882,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4971,9 +4919,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5010,9 +4956,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5049,9 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5088,9 +5030,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>45800</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,6 +5042,6 @@
       <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -682,7 +682,7 @@
         <v>511.9245492599999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>512.0342492599999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>500.4145492599999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>501.7225492599999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>498.39004926</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>485.0893492599999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>485.5875492599999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1837,10 +1837,14 @@
         <v>470.40784926</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46410</v>
+      </c>
+      <c r="J44" t="n">
+        <v>46410</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
@@ -1873,8 +1877,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>46410</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1916,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>46410</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2662,7 +2678,7 @@
         <v>665.7413308900002</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2711,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2744,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2827,7 +2843,7 @@
         <v>737.8582308900003</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2876,7 @@
         <v>740.8582308900003</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2909,7 @@
         <v>739.8582308900003</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2942,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2975,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3008,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3041,7 @@
         <v>691.8795308900003</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3074,7 @@
         <v>690.2195308900003</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3652,10 +3668,14 @@
         <v>784.5809308900003</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>45750</v>
+      </c>
+      <c r="J99" t="n">
+        <v>45750</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3685,11 +3705,19 @@
         <v>784.5809308900003</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>45750</v>
+      </c>
+      <c r="J100" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3746,19 @@
         <v>785.8009308900004</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>45750</v>
+      </c>
+      <c r="J101" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3787,19 @@
         <v>803.0684308900004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>46100</v>
+      </c>
+      <c r="J102" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3828,19 @@
         <v>803.4813308900004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>46190</v>
+      </c>
+      <c r="J103" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3872,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3911,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3950,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +3989,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4028,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4067,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4106,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4145,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4418,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>45750</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,15 +4454,15 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>45360</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>45750</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L119" t="n">
@@ -4351,12 +4493,12 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>45100</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>45750</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4390,12 +4532,12 @@
         <v>819.5084308900006</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>45100</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>45750</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4429,12 +4571,12 @@
         <v>891.4883308900006</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>45110</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>45750</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,12 +4610,12 @@
         <v>904.4883308900006</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>46360</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>45750</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4507,12 +4649,12 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>46980</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>45750</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,7 +4691,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>45750</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,17 +4727,19 @@
         <v>884.2559801600006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>45750</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1</v>
+        <v>1.040901639344262</v>
       </c>
       <c r="M126" t="inlineStr"/>
     </row>
@@ -4620,15 +4766,11 @@
         <v>930.4346801600007</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4657,15 +4799,11 @@
         <v>918.0195801600006</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4694,15 +4832,11 @@
         <v>900.0844801600006</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4731,15 +4865,11 @@
         <v>901.7744801600006</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4768,15 +4898,11 @@
         <v>913.6229801600006</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4805,15 +4931,11 @@
         <v>901.1250801600006</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4842,15 +4964,11 @@
         <v>907.0650801600007</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4879,15 +4997,11 @@
         <v>906.3334801600007</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4916,15 +5030,11 @@
         <v>906.5634801600007</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4953,15 +5063,11 @@
         <v>847.6029801600007</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4994,11 +5100,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5031,17 +5133,13 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -484,7 +484,7 @@
         <v>617.77434926</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>619.06434926</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>619.06434926</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>614.1043492599999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>538.0040492599999</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>514.2480492599999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>514.1696492599999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>501.66154926</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1804,11 +1804,17 @@
         <v>468.33784926</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>47160</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1842,10 +1848,12 @@
       <c r="I44" t="n">
         <v>46410</v>
       </c>
-      <c r="J44" t="n">
-        <v>46410</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,15 +1882,15 @@
         <v>472.40784926</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>46410</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
@@ -1913,15 +1921,15 @@
         <v>510.10574926</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>46410</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>47030</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1952,11 +1960,17 @@
         <v>514.10574926</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>47340</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +1999,17 @@
         <v>665.10293089</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>48160</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2022,7 +2042,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2055,7 +2079,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2088,7 +2116,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2121,7 +2153,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2186,15 @@
         <v>713.21843089</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2183,14 +2223,16 @@
         <v>721.68083089</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -2216,7 +2258,7 @@
         <v>682.7052308900001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2249,7 +2291,7 @@
         <v>696.8727308900001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2282,7 +2324,7 @@
         <v>651.0738308900001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2315,7 +2357,7 @@
         <v>691.0675308900001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2678,7 +2720,7 @@
         <v>665.7413308900002</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2711,7 +2753,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2744,7 +2786,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2843,7 +2885,7 @@
         <v>737.8582308900003</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2876,7 +2918,7 @@
         <v>740.8582308900003</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2909,7 +2951,7 @@
         <v>739.8582308900003</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2942,7 +2984,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2975,7 +3017,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3008,7 +3050,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3041,7 +3083,7 @@
         <v>691.8795308900003</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3074,7 +3116,7 @@
         <v>690.2195308900003</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3536,11 +3578,17 @@
         <v>782.5809308900003</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>45600</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3569,11 +3617,17 @@
         <v>780.5809308900003</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>45700</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,7 +3660,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3693,17 @@
         <v>784.5809308900003</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>45700</v>
+      </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3673,10 +3737,12 @@
       <c r="I99" t="n">
         <v>45750</v>
       </c>
-      <c r="J99" t="n">
-        <v>45750</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3710,12 +3776,10 @@
       <c r="I100" t="n">
         <v>45750</v>
       </c>
-      <c r="J100" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3751,12 +3815,10 @@
       <c r="I101" t="n">
         <v>45750</v>
       </c>
-      <c r="J101" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3792,9 +3854,7 @@
       <c r="I102" t="n">
         <v>46100</v>
       </c>
-      <c r="J102" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,9 +3893,7 @@
       <c r="I103" t="n">
         <v>46190</v>
       </c>
-      <c r="J103" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3869,12 +3927,12 @@
         <v>820.7982308900005</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>46210</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,9 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,9 +4006,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,9 +4043,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,9 +4080,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4067,9 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,9 +4154,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4145,9 +4191,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,9 +4228,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>45750</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4220,12 +4262,12 @@
         <v>808.3931308900005</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>46300</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4259,12 +4301,12 @@
         <v>808.3931308900005</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>45800</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4298,12 +4340,12 @@
         <v>808.3931308900005</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>45800</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,12 +4379,12 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>45800</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4376,12 +4418,12 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>45360</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4415,12 +4457,12 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>45360</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4454,12 +4496,12 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>45360</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4493,12 +4535,12 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>45100</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,12 +4574,12 @@
         <v>819.5084308900006</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>45100</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,12 +4613,12 @@
         <v>891.4883308900006</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>45110</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,12 +4652,12 @@
         <v>904.4883308900006</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>46360</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,12 +4691,12 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>46980</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4688,12 +4730,12 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>48080</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,19 +4769,19 @@
         <v>884.2559801600006</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>45750</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>48080</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
-        <v>1.040901639344262</v>
+        <v>1</v>
       </c>
       <c r="M126" t="inlineStr"/>
     </row>
@@ -4766,11 +4808,17 @@
         <v>930.4346801600007</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>47850</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4799,11 +4847,17 @@
         <v>918.0195801600006</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>48040</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4832,11 +4886,17 @@
         <v>900.0844801600006</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>47900</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4865,11 +4925,17 @@
         <v>901.7744801600006</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>46660</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4898,11 +4964,17 @@
         <v>913.6229801600006</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>47390</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4931,11 +5003,15 @@
         <v>901.1250801600006</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4964,11 +5040,15 @@
         <v>907.0650801600007</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +5077,15 @@
         <v>906.3334801600007</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +5114,15 @@
         <v>906.5634801600007</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5063,11 +5151,15 @@
         <v>847.6029801600007</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5100,7 +5192,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5129,11 +5225,17 @@
         <v>835.9004801600007</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>45150</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-17 BackTest ZEC.xlsx
+++ b/BackTest/2019-10-17 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>26.71</v>
       </c>
       <c r="G2" t="n">
-        <v>617.77434926</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1.5507</v>
       </c>
       <c r="G3" t="n">
-        <v>617.77434926</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>619.06434926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>15.1505</v>
       </c>
       <c r="G5" t="n">
-        <v>619.06434926</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4.96</v>
       </c>
       <c r="G6" t="n">
-        <v>614.1043492599999</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>76.1003</v>
       </c>
       <c r="G7" t="n">
-        <v>538.0040492599999</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>23.756</v>
       </c>
       <c r="G8" t="n">
-        <v>514.2480492599999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2.3235</v>
       </c>
       <c r="G9" t="n">
-        <v>511.9245492599999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>0.1097</v>
       </c>
       <c r="G10" t="n">
-        <v>512.0342492599999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2.1354</v>
       </c>
       <c r="G11" t="n">
-        <v>514.1696492599999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>7.7156</v>
       </c>
       <c r="G12" t="n">
-        <v>506.4540492599999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>6.0395</v>
       </c>
       <c r="G13" t="n">
-        <v>500.4145492599999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>1.247</v>
       </c>
       <c r="G14" t="n">
-        <v>501.66154926</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>0.061</v>
       </c>
       <c r="G15" t="n">
-        <v>501.7225492599999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3.3325</v>
       </c>
       <c r="G16" t="n">
-        <v>498.39004926</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>13.3007</v>
       </c>
       <c r="G17" t="n">
-        <v>485.0893492599999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>0.4982</v>
       </c>
       <c r="G18" t="n">
-        <v>485.5875492599999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>0.6975</v>
       </c>
       <c r="G19" t="n">
-        <v>486.2850492599999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1.6873</v>
       </c>
       <c r="G20" t="n">
-        <v>486.2850492599999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>0.0579</v>
       </c>
       <c r="G21" t="n">
-        <v>486.34294926</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>0.0578</v>
       </c>
       <c r="G22" t="n">
-        <v>486.28514926</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2.6763</v>
       </c>
       <c r="G23" t="n">
-        <v>483.6088492599999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>9.8894</v>
       </c>
       <c r="G24" t="n">
-        <v>483.6088492599999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>16.3994</v>
       </c>
       <c r="G25" t="n">
-        <v>483.6088492599999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>7.5921</v>
       </c>
       <c r="G26" t="n">
-        <v>483.6088492599999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1.06</v>
       </c>
       <c r="G27" t="n">
-        <v>482.5488492599999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1.34</v>
       </c>
       <c r="G28" t="n">
-        <v>481.20884926</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>11.784</v>
       </c>
       <c r="G29" t="n">
-        <v>469.42484926</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>5.1009</v>
       </c>
       <c r="G30" t="n">
-        <v>474.52574926</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>14.6426</v>
       </c>
       <c r="G31" t="n">
-        <v>474.52574926</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>0.0543</v>
       </c>
       <c r="G32" t="n">
-        <v>474.58004926</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>4.9457</v>
       </c>
       <c r="G33" t="n">
-        <v>474.58004926</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>0.051</v>
       </c>
       <c r="G34" t="n">
-        <v>474.63104926</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>0.5278</v>
       </c>
       <c r="G35" t="n">
-        <v>474.10324926</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1.3681</v>
       </c>
       <c r="G36" t="n">
-        <v>475.47134926</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>4.4775</v>
       </c>
       <c r="G37" t="n">
-        <v>470.99384926</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1.688</v>
       </c>
       <c r="G38" t="n">
-        <v>470.99384926</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3.4002</v>
       </c>
       <c r="G39" t="n">
-        <v>467.59364926</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>0.0479</v>
       </c>
       <c r="G40" t="n">
-        <v>467.64154926</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>20.3264</v>
       </c>
       <c r="G41" t="n">
-        <v>447.3151492600001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>29.714</v>
       </c>
       <c r="G42" t="n">
-        <v>477.0291492600001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,24 +1673,15 @@
         <v>8.6913</v>
       </c>
       <c r="G43" t="n">
-        <v>468.33784926</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>47160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1840,24 +1703,15 @@
         <v>2.07</v>
       </c>
       <c r="G44" t="n">
-        <v>470.40784926</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>46410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1879,24 +1733,15 @@
         <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>472.40784926</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>46830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1918,24 +1763,15 @@
         <v>37.6979</v>
       </c>
       <c r="G46" t="n">
-        <v>510.10574926</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>47030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1957,24 +1793,15 @@
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>514.10574926</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1996,24 +1823,15 @@
         <v>150.99718163</v>
       </c>
       <c r="G48" t="n">
-        <v>665.10293089</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>48160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2035,22 +1853,15 @@
         <v>28.9962</v>
       </c>
       <c r="G49" t="n">
-        <v>636.10673089</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2072,22 +1883,15 @@
         <v>44.0949</v>
       </c>
       <c r="G50" t="n">
-        <v>680.20163089</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2109,22 +1913,15 @@
         <v>1.5318</v>
       </c>
       <c r="G51" t="n">
-        <v>678.6698308900001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2146,22 +1943,15 @@
         <v>26.0798</v>
       </c>
       <c r="G52" t="n">
-        <v>704.74963089</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2183,22 +1973,15 @@
         <v>8.4688</v>
       </c>
       <c r="G53" t="n">
-        <v>713.21843089</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2220,20 +2003,15 @@
         <v>8.462400000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>721.68083089</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K54" t="n">
+        <v>1</v>
       </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2255,18 +2033,15 @@
         <v>38.9756</v>
       </c>
       <c r="G55" t="n">
-        <v>682.7052308900001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2288,18 +2063,15 @@
         <v>14.1675</v>
       </c>
       <c r="G56" t="n">
-        <v>696.8727308900001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2321,18 +2093,15 @@
         <v>45.7989</v>
       </c>
       <c r="G57" t="n">
-        <v>651.0738308900001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2354,18 +2123,15 @@
         <v>39.9937</v>
       </c>
       <c r="G58" t="n">
-        <v>691.0675308900001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2387,18 +2153,15 @@
         <v>4.5367</v>
       </c>
       <c r="G59" t="n">
-        <v>686.5308308900001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2420,18 +2183,15 @@
         <v>6.2857</v>
       </c>
       <c r="G60" t="n">
-        <v>680.24513089</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2453,18 +2213,15 @@
         <v>10.6892</v>
       </c>
       <c r="G61" t="n">
-        <v>690.9343308900001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2486,18 +2243,15 @@
         <v>11.7045</v>
       </c>
       <c r="G62" t="n">
-        <v>679.22983089</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2519,18 +2273,15 @@
         <v>3.7832</v>
       </c>
       <c r="G63" t="n">
-        <v>675.4466308900001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2552,18 +2303,15 @@
         <v>24.19</v>
       </c>
       <c r="G64" t="n">
-        <v>699.6366308900001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2585,18 +2333,15 @@
         <v>20.437</v>
       </c>
       <c r="G65" t="n">
-        <v>679.1996308900001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2618,18 +2363,15 @@
         <v>8.4376</v>
       </c>
       <c r="G66" t="n">
-        <v>670.7620308900001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2651,18 +2393,15 @@
         <v>1.7566</v>
       </c>
       <c r="G67" t="n">
-        <v>672.5186308900002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2684,18 +2423,15 @@
         <v>6.3639</v>
       </c>
       <c r="G68" t="n">
-        <v>666.1547308900002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2717,18 +2453,15 @@
         <v>0.4134</v>
       </c>
       <c r="G69" t="n">
-        <v>665.7413308900002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2750,18 +2483,15 @@
         <v>40.4934</v>
       </c>
       <c r="G70" t="n">
-        <v>625.2479308900002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2783,18 +2513,15 @@
         <v>8.9217</v>
       </c>
       <c r="G71" t="n">
-        <v>625.2479308900002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2816,18 +2543,15 @@
         <v>57.0529</v>
       </c>
       <c r="G72" t="n">
-        <v>682.3008308900003</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2849,18 +2573,15 @@
         <v>57.9374</v>
       </c>
       <c r="G73" t="n">
-        <v>740.2382308900003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2882,18 +2603,15 @@
         <v>2.38</v>
       </c>
       <c r="G74" t="n">
-        <v>737.8582308900003</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2915,18 +2633,15 @@
         <v>3</v>
       </c>
       <c r="G75" t="n">
-        <v>740.8582308900003</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2948,18 +2663,15 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>739.8582308900003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2981,18 +2693,15 @@
         <v>4.9505</v>
       </c>
       <c r="G77" t="n">
-        <v>734.9077308900003</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3014,18 +2723,15 @@
         <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>734.9077308900003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3047,18 +2753,15 @@
         <v>18.9536</v>
       </c>
       <c r="G79" t="n">
-        <v>734.9077308900003</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3080,18 +2783,15 @@
         <v>43.0282</v>
       </c>
       <c r="G80" t="n">
-        <v>691.8795308900003</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3113,18 +2813,15 @@
         <v>1.66</v>
       </c>
       <c r="G81" t="n">
-        <v>690.2195308900003</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3146,18 +2843,15 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>689.2195308900003</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3179,18 +2873,15 @@
         <v>9.982799999999999</v>
       </c>
       <c r="G83" t="n">
-        <v>679.2367308900003</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3212,18 +2903,15 @@
         <v>7.3255</v>
       </c>
       <c r="G84" t="n">
-        <v>686.5622308900004</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3245,18 +2933,15 @@
         <v>1.9775</v>
       </c>
       <c r="G85" t="n">
-        <v>684.5847308900004</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3278,18 +2963,15 @@
         <v>16.6945</v>
       </c>
       <c r="G86" t="n">
-        <v>701.2792308900003</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3311,18 +2993,15 @@
         <v>9.1349</v>
       </c>
       <c r="G87" t="n">
-        <v>701.2792308900003</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3344,18 +3023,15 @@
         <v>83.2315</v>
       </c>
       <c r="G88" t="n">
-        <v>784.5107308900003</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3377,18 +3053,15 @@
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>781.5107308900003</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3410,18 +3083,15 @@
         <v>3</v>
       </c>
       <c r="G90" t="n">
-        <v>784.5107308900003</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3443,18 +3113,15 @@
         <v>9</v>
       </c>
       <c r="G91" t="n">
-        <v>775.5107308900003</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3476,18 +3143,15 @@
         <v>1.0453</v>
       </c>
       <c r="G92" t="n">
-        <v>776.5560308900003</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3509,18 +3173,15 @@
         <v>0.9751</v>
       </c>
       <c r="G93" t="n">
-        <v>775.5809308900003</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3542,18 +3203,15 @@
         <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>779.5809308900003</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3575,24 +3233,15 @@
         <v>3</v>
       </c>
       <c r="G95" t="n">
-        <v>782.5809308900003</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>45600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3614,24 +3263,19 @@
         <v>2</v>
       </c>
       <c r="G96" t="n">
-        <v>780.5809308900003</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>45700</v>
       </c>
       <c r="I96" t="n">
         <v>45700</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3653,22 +3297,23 @@
         <v>3</v>
       </c>
       <c r="G97" t="n">
-        <v>783.5809308900003</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>45690</v>
+      </c>
+      <c r="I97" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3690,24 +3335,23 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>784.5809308900003</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>45700</v>
       </c>
       <c r="I98" t="n">
         <v>45700</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3729,24 +3373,23 @@
         <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>784.5809308900003</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>45750</v>
       </c>
       <c r="I99" t="n">
-        <v>45750</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3768,24 +3411,23 @@
         <v>2</v>
       </c>
       <c r="G100" t="n">
-        <v>784.5809308900003</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>45750</v>
       </c>
       <c r="I100" t="n">
-        <v>45750</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3807,24 +3449,23 @@
         <v>1.22</v>
       </c>
       <c r="G101" t="n">
-        <v>785.8009308900004</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>45750</v>
       </c>
       <c r="I101" t="n">
-        <v>45750</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3846,24 +3487,23 @@
         <v>17.2675</v>
       </c>
       <c r="G102" t="n">
-        <v>803.0684308900004</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>46100</v>
       </c>
       <c r="I102" t="n">
-        <v>46100</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3885,24 +3525,21 @@
         <v>0.4129</v>
       </c>
       <c r="G103" t="n">
-        <v>803.4813308900004</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>46190</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3924,24 +3561,21 @@
         <v>17.3169</v>
       </c>
       <c r="G104" t="n">
-        <v>820.7982308900005</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="n">
-        <v>46210</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3963,22 +3597,21 @@
         <v>6.4463</v>
       </c>
       <c r="G105" t="n">
-        <v>814.3519308900005</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4000,22 +3633,21 @@
         <v>1.2969</v>
       </c>
       <c r="G106" t="n">
-        <v>815.6488308900006</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4037,22 +3669,21 @@
         <v>5.1309</v>
       </c>
       <c r="G107" t="n">
-        <v>810.5179308900006</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4074,22 +3705,21 @@
         <v>6.1915</v>
       </c>
       <c r="G108" t="n">
-        <v>804.3264308900006</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4111,22 +3741,21 @@
         <v>0.2</v>
       </c>
       <c r="G109" t="n">
-        <v>804.1264308900005</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4148,22 +3777,21 @@
         <v>0.013</v>
       </c>
       <c r="G110" t="n">
-        <v>804.1394308900005</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4185,22 +3813,21 @@
         <v>16.9173</v>
       </c>
       <c r="G111" t="n">
-        <v>821.0567308900005</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4222,22 +3849,21 @@
         <v>12.6635</v>
       </c>
       <c r="G112" t="n">
-        <v>821.0567308900005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4259,24 +3885,21 @@
         <v>12.6636</v>
       </c>
       <c r="G113" t="n">
-        <v>808.3931308900005</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>46300</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4298,24 +3921,21 @@
         <v>10.1396</v>
       </c>
       <c r="G114" t="n">
-        <v>808.3931308900005</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>45800</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4337,24 +3957,21 @@
         <v>1</v>
       </c>
       <c r="G115" t="n">
-        <v>808.3931308900005</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>45800</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4376,24 +3993,21 @@
         <v>4.01</v>
       </c>
       <c r="G116" t="n">
-        <v>804.3831308900005</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>45800</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4415,24 +4029,21 @@
         <v>5</v>
       </c>
       <c r="G117" t="n">
-        <v>804.3831308900005</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>45360</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4454,24 +4065,21 @@
         <v>10</v>
       </c>
       <c r="G118" t="n">
-        <v>804.3831308900005</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>45360</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4493,24 +4101,21 @@
         <v>9.0928</v>
       </c>
       <c r="G119" t="n">
-        <v>795.2903308900005</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>45360</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4532,24 +4137,21 @@
         <v>5.4286</v>
       </c>
       <c r="G120" t="n">
-        <v>795.2903308900005</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>45100</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4571,24 +4173,21 @@
         <v>24.2181</v>
       </c>
       <c r="G121" t="n">
-        <v>819.5084308900006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>45100</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4610,24 +4209,21 @@
         <v>71.9799</v>
       </c>
       <c r="G122" t="n">
-        <v>891.4883308900006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>45110</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4649,24 +4245,21 @@
         <v>13</v>
       </c>
       <c r="G123" t="n">
-        <v>904.4883308900006</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>46360</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4688,24 +4281,21 @@
         <v>19</v>
       </c>
       <c r="G124" t="n">
-        <v>923.4883308900006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>46980</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4727,24 +4317,21 @@
         <v>4.2433</v>
       </c>
       <c r="G125" t="n">
-        <v>923.4883308900006</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>48080</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4766,24 +4353,21 @@
         <v>39.23235073</v>
       </c>
       <c r="G126" t="n">
-        <v>884.2559801600006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>48080</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4805,24 +4389,21 @@
         <v>46.1787</v>
       </c>
       <c r="G127" t="n">
-        <v>930.4346801600007</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>47850</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4844,24 +4425,21 @@
         <v>12.4151</v>
       </c>
       <c r="G128" t="n">
-        <v>918.0195801600006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
-        <v>48040</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4883,24 +4461,21 @@
         <v>17.9351</v>
       </c>
       <c r="G129" t="n">
-        <v>900.0844801600006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>47900</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4922,24 +4497,21 @@
         <v>1.69</v>
       </c>
       <c r="G130" t="n">
-        <v>901.7744801600006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>46660</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4961,24 +4533,21 @@
         <v>11.8485</v>
       </c>
       <c r="G131" t="n">
-        <v>913.6229801600006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
-        <v>47390</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5000,22 +4569,21 @@
         <v>12.4979</v>
       </c>
       <c r="G132" t="n">
-        <v>901.1250801600006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5037,22 +4605,21 @@
         <v>5.94</v>
       </c>
       <c r="G133" t="n">
-        <v>907.0650801600007</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5074,22 +4641,21 @@
         <v>0.7316</v>
       </c>
       <c r="G134" t="n">
-        <v>906.3334801600007</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5111,22 +4677,21 @@
         <v>0.23</v>
       </c>
       <c r="G135" t="n">
-        <v>906.5634801600007</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5148,22 +4713,21 @@
         <v>58.9605</v>
       </c>
       <c r="G136" t="n">
-        <v>847.6029801600007</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5185,22 +4749,21 @@
         <v>9.679500000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>837.9234801600007</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>45700</v>
+      </c>
+      <c r="J137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5222,24 +4785,21 @@
         <v>2.023</v>
       </c>
       <c r="G138" t="n">
-        <v>835.9004801600007</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>45150</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+        <v>45700</v>
+      </c>
+      <c r="J138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
